--- a/relatorio_diferencas.xlsx
+++ b/relatorio_diferencas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,14 +471,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>31.5</v>
+        <v>0.8504</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="3">
@@ -492,14 +492,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8333</v>
+        <v>0.6581</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8504</v>
+        <v>0.6838</v>
       </c>
     </row>
     <row r="4">
@@ -513,14 +513,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6795</v>
+        <v>0.7607</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6581</v>
+        <v>0.8034</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +534,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9145</v>
+        <v>0.8675</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8974</v>
+        <v>0.8547</v>
       </c>
     </row>
     <row r="6">
@@ -555,118 +555,120 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8846000000000001</v>
+        <v>0.2179</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8974</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25017438</v>
+        <v>25019597</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9231</v>
+        <v>31.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9402</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25017438</v>
+        <v>25019597</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.5</v>
+        <v>0.9634</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>0.9814000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25017438</v>
+        <v>25019597</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9658</v>
+        <v>0.8598</v>
       </c>
       <c r="E9" t="n">
-        <v>0.953</v>
+        <v>0.8882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25017438</v>
+        <v>25019597</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8761</v>
+        <v>0.5793</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8675</v>
+        <v>0.6273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25017438</v>
+        <v>25019597</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>2 Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>0.9024</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9193</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -679,14 +681,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9573</v>
+        <v>0.9207</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9634</v>
+        <v>0.9193</v>
       </c>
     </row>
     <row r="13">
@@ -700,14 +702,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8537</v>
+        <v>0.75</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8598</v>
+        <v>0.7578</v>
       </c>
     </row>
     <row r="14">
@@ -721,14 +723,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.622</v>
+        <v>0.9695</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5793</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="15">
@@ -742,14 +744,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9085</v>
+        <v>0.9573</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9207</v>
+        <v>0.9627</v>
       </c>
     </row>
     <row r="16">
@@ -763,14 +765,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7317</v>
+        <v>0.8659</v>
       </c>
       <c r="E16" t="n">
-        <v>0.75</v>
+        <v>0.9255</v>
       </c>
     </row>
     <row r="17">
@@ -784,14 +786,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9817</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9695</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18">
@@ -805,14 +807,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9634</v>
+        <v>0.2012</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9573</v>
+        <v>0.1491</v>
       </c>
     </row>
     <row r="19">
@@ -826,35 +828,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8841</v>
+        <v>0.0244</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8659</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25019597</v>
+        <v>25014951</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.1707</v>
+        <v>0.7032</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2012</v>
+        <v>0.7078</v>
       </c>
     </row>
     <row r="21">
@@ -868,14 +870,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31.5</v>
+        <v>0.9132</v>
       </c>
       <c r="E21" t="n">
-        <v>34.5</v>
+        <v>0.9087</v>
       </c>
     </row>
     <row r="22">
@@ -889,14 +891,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.6757</v>
+        <v>0.9087</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7032</v>
+        <v>0.9177999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -910,129 +912,129 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9144</v>
+        <v>0.105</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9315</v>
+        <v>0.0959</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25014951</v>
+        <v>25014412</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9189000000000001</v>
+        <v>0.5723</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9268999999999999</v>
+        <v>0.5602</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25014951</v>
+        <v>25014412</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>2 Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8919</v>
+        <v>0.9036</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9132</v>
+        <v>0.9217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25014951</v>
+        <v>25014412</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>I4</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.8675</v>
       </c>
       <c r="E26" t="n">
-        <v>1.5</v>
+        <v>0.8072</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25014951</v>
+        <v>25014412</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9459</v>
+        <v>0.8735000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9498</v>
+        <v>0.8675</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25014951</v>
+        <v>25014412</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9505</v>
+        <v>0.9699</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9543</v>
+        <v>0.9819</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25014951</v>
+        <v>25014412</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1040,188 +1042,188 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8919</v>
+        <v>0.9458</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9087</v>
+        <v>0.9578</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25014951</v>
+        <v>25014412</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.1506</v>
       </c>
       <c r="E30" t="n">
-        <v>1.5</v>
+        <v>0.2108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25014951</v>
+        <v>25018094</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.1216</v>
+        <v>28.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0.105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ECI MARIA MOREIRA PINTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25019740</v>
+        <v>25018094</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9938</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0.9583</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ECI MARIA MOREIRA PINTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25019740</v>
+        <v>25018094</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9938</v>
+        <v>0.9011</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0.9015</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>33</v>
+        <v>0.5247000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>34.5</v>
+        <v>0.6629</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>2 Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9398</v>
+        <v>0.8783</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9458</v>
+        <v>0.8712</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.5904</v>
+        <v>0.9087</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5723</v>
+        <v>0.9091</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9217</v>
+        <v>0.7985</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9036</v>
+        <v>0.8977000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1229,20 +1231,20 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9819</v>
+        <v>0.9202</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9699</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1250,20 +1252,20 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9699</v>
+        <v>0.924</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9578</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1271,20 +1273,20 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9398</v>
+        <v>0.8555</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9458</v>
+        <v>0.9015</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1292,10 +1294,10 @@
         </is>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1309,14 +1311,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.962</v>
+        <v>0.1977</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9582000000000001</v>
+        <v>0.1553</v>
       </c>
     </row>
     <row r="43">
@@ -1330,14 +1332,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média demais componentes</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.5209</v>
+        <v>0.6806</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5247000000000001</v>
+        <v>0.6818</v>
       </c>
     </row>
     <row r="44">
@@ -1351,182 +1353,182 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.7756999999999999</v>
+        <v>0.0266</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7985</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9316</v>
+        <v>0.9194</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9202</v>
+        <v>0.9172</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9354</v>
+        <v>0.6972</v>
       </c>
       <c r="E46" t="n">
-        <v>0.924</v>
+        <v>0.7277</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>2 Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8593</v>
+        <v>0.9346</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8555</v>
+        <v>0.9368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.2015</v>
+        <v>0.9107</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1977</v>
+        <v>0.9281</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média demais componentes</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.6768</v>
+        <v>0.9281</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6806</v>
+        <v>0.9303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.0228</v>
+        <v>0.963</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0266</v>
+        <v>0.9739</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ECIT ESTADUAL DOUTOR SILVA MARIZ</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25019538</v>
+        <v>25018280</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.9520999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9897</v>
+        <v>0.9542</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ECIT ESTADUAL DOUTOR SILVA MARIZ</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25019538</v>
+        <v>25018280</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média demais componentes</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8756</v>
+        <v>0.1068</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8711</v>
+        <v>0.0806</v>
       </c>
     </row>
     <row r="53">
@@ -1540,24 +1542,24 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média demais componentes</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>34.5</v>
+        <v>0.6449</v>
       </c>
       <c r="E53" t="n">
-        <v>39</v>
+        <v>0.6427</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>25018280</v>
+        <v>25017080</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1565,20 +1567,20 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.9172</v>
+        <v>0.875</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9194</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>25018280</v>
+        <v>25017080</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1586,20 +1588,20 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.7262</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6972</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>25018280</v>
+        <v>25017080</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1607,251 +1609,251 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.8889</v>
+        <v>0.8988</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9346</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>25018280</v>
+        <v>25017080</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.9129</v>
+        <v>0.9226</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9107</v>
+        <v>0.9286</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>25018280</v>
+        <v>25017080</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.8344</v>
+        <v>0.9405</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9281</v>
+        <v>0.9464</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25018280</v>
+        <v>25017080</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>I4</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="E59" t="n">
-        <v>1.5</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>25018280</v>
+        <v>25126342</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.9673</v>
+        <v>45</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9956</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>25018280</v>
+        <v>25126342</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.9608</v>
+        <v>0.988</v>
       </c>
       <c r="E61" t="n">
-        <v>0.963</v>
+        <v>0.9398</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25018280</v>
+        <v>25126342</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.8954</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9520999999999999</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25018280</v>
+        <v>25126342</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>0.988</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>25018280</v>
+        <v>25018124</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.1416</v>
+        <v>22.5</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1068</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>25018280</v>
+        <v>25018124</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média demais componentes</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.6427</v>
+        <v>0.9637</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6449</v>
+        <v>0.9689</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>25017080</v>
+        <v>25018124</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.9762</v>
+        <v>0.8497</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9821</v>
+        <v>0.8549</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>25017080</v>
+        <v>25018124</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.869</v>
+        <v>0.5544</v>
       </c>
       <c r="E67" t="n">
-        <v>0.875</v>
+        <v>0.5750999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25017080</v>
+        <v>25018124</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1859,94 +1861,94 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.8929</v>
+        <v>0.8756</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8988</v>
+        <v>0.8731</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25126342</v>
+        <v>25018124</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>43.5</v>
+        <v>0.7979000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>45</v>
+        <v>0.8031</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25126342</v>
+        <v>25018124</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.9157</v>
+        <v>0.7668</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9277</v>
+        <v>0.7824</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>25126342</v>
+        <v>25018124</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.9036</v>
+        <v>0.9404</v>
       </c>
       <c r="E71" t="n">
-        <v>0.988</v>
+        <v>0.9378</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>25126342</v>
+        <v>25018124</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>I6</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.9639</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="73">
@@ -1960,14 +1962,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>21</v>
+        <v>0.8212</v>
       </c>
       <c r="E73" t="n">
-        <v>22.5</v>
+        <v>0.8057</v>
       </c>
     </row>
     <row r="74">
@@ -1981,14 +1983,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.8522999999999999</v>
+        <v>0.2642</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8497</v>
+        <v>0.2513</v>
       </c>
     </row>
     <row r="75">
@@ -2002,234 +2004,234 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.5492</v>
+        <v>0.0078</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5544</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>25018124</v>
+        <v>25018132</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.8731</v>
+        <v>0.9491000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8756</v>
+        <v>0.9517</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>25018124</v>
+        <v>25018132</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.8264</v>
+        <v>0.9544</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8446</v>
+        <v>0.9571</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>25018124</v>
+        <v>25018132</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.7642</v>
+        <v>0.9625</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7668</v>
+        <v>0.9678</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>25018124</v>
+        <v>25018132</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.9378</v>
+        <v>0.7426</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9404</v>
+        <v>0.8579</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>25018124</v>
+        <v>25018132</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>I6</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1.5</v>
+        <v>0.0161</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>25018124</v>
+        <v>25018256</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.2824</v>
+        <v>0.9547</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2642</v>
+        <v>0.9573</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>25018124</v>
+        <v>25018256</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.0104</v>
+        <v>0.768</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0078</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>25018132</v>
+        <v>25018256</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>37.5</v>
+        <v>0.5333</v>
       </c>
       <c r="E83" t="n">
-        <v>39</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>25018132</v>
+        <v>25018256</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>2 Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9544</v>
+        <v>0.9333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>25018132</v>
+        <v>25018256</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.9946</v>
+        <v>0.8187</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9973</v>
+        <v>0.8133</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>25018132</v>
+        <v>25018256</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2237,73 +2239,73 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.9464</v>
+        <v>0.7252999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9625</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>25018132</v>
+        <v>25018256</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.9067</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7426</v>
+        <v>0.9093</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>25018132</v>
+        <v>25018256</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.0107</v>
+        <v>0.944</v>
       </c>
       <c r="E88" t="n">
-        <v>0.008</v>
+        <v>0.9413</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>25018132</v>
+        <v>25018256</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.0134</v>
+        <v>0.28</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0161</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="90">
@@ -2317,245 +2319,245 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>25.5</v>
+        <v>0.0213</v>
       </c>
       <c r="E90" t="n">
-        <v>28.5</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>25018256</v>
+        <v>25018264</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.9493</v>
+        <v>30</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9547</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>25018256</v>
+        <v>25018264</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.5173</v>
+        <v>0.9636</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5333</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>25018256</v>
+        <v>25018264</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.9093</v>
+        <v>0.8818</v>
       </c>
       <c r="E93" t="n">
-        <v>0.92</v>
+        <v>0.8909</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>25018256</v>
+        <v>25018264</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8187</v>
+        <v>0.9182</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>25018256</v>
+        <v>25018264</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.696</v>
+        <v>0.9636</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7252999999999999</v>
+        <v>0.9727</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>25018256</v>
+        <v>25018264</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.8933</v>
+        <v>0.9636</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9067</v>
+        <v>0.9727</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>25018256</v>
+        <v>25018264</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>0.9727</v>
       </c>
       <c r="E97" t="n">
-        <v>1.5</v>
+        <v>0.9636</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>25018256</v>
+        <v>25018264</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.9173</v>
+        <v>0.9818</v>
       </c>
       <c r="E98" t="n">
-        <v>0.944</v>
+        <v>0.9909</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>25018256</v>
+        <v>25018264</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1.5</v>
+        <v>0.9364</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>25018256</v>
+        <v>25018264</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.2987</v>
+        <v>1.5</v>
       </c>
       <c r="E100" t="n">
-        <v>0.28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>25018256</v>
+        <v>25018264</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.024</v>
+        <v>0.0727</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0213</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="102">
@@ -2569,24 +2571,24 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.8727</v>
+        <v>0.0182</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8818</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>25014960</v>
+        <v>25017071</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2594,20 +2596,20 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.8136</v>
+        <v>0.7853</v>
       </c>
       <c r="E103" t="n">
-        <v>0.822</v>
+        <v>0.8221000000000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>25014960</v>
+        <v>25017071</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2615,10 +2617,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.9407</v>
+        <v>0.9631999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9576</v>
+        <v>0.9816</v>
       </c>
     </row>
     <row r="105">
@@ -2632,192 +2634,192 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.7607</v>
+        <v>0.0675</v>
       </c>
       <c r="E105" t="n">
-        <v>0.7853</v>
+        <v>0.0736</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEF RENE ALVES RAMALHO</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>25017071</v>
+        <v>25130846</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.9693000000000001</v>
+        <v>0.9718</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9877</v>
+        <v>0.9577</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>25017071</v>
+        <v>25019228</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.9509</v>
+        <v>0.9301</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9631999999999999</v>
+        <v>0.9338</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>25017071</v>
+        <v>25019228</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.908</v>
+        <v>0.7243000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9202</v>
+        <v>0.7353</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>25017071</v>
+        <v>25019228</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.9631999999999999</v>
+        <v>0.6875</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9693000000000001</v>
+        <v>0.6912</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>25017071</v>
+        <v>25019228</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.9448</v>
+        <v>0.0331</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9755</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>25017071</v>
+        <v>25018140</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.0859</v>
+        <v>0.6178</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0675</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>EEEF RENE ALVES RAMALHO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>25130846</v>
+        <v>25018140</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.9577</v>
+        <v>0.5019</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9718</v>
+        <v>0.5058</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>25018078</v>
+        <v>25018140</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>2 Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.8389</v>
+        <v>0.9151</v>
       </c>
       <c r="E113" t="n">
-        <v>0.8444</v>
+        <v>0.9189000000000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>25018078</v>
+        <v>25018140</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2825,144 +2827,146 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.65</v>
+        <v>0.695</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6611</v>
+        <v>0.7336</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>25018078</v>
+        <v>25018140</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="E115" t="inlineStr"/>
+        <v>0.8958</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.8996</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>25019228</v>
+        <v>25018140</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.9265</v>
+        <v>0.0154</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9301</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>25019228</v>
+        <v>25018221</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.7169</v>
+        <v>36</v>
       </c>
       <c r="E117" t="n">
-        <v>0.7243000000000001</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>25019228</v>
+        <v>25018221</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.9631999999999999</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9669</v>
+        <v>0.9451000000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>25019228</v>
+        <v>25018221</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.9559</v>
+        <v>0.878</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9596</v>
+        <v>0.8841</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>25019228</v>
+        <v>25018221</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.9669</v>
+        <v>0.9695</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9706</v>
+        <v>0.9756</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>25019228</v>
+        <v>25018221</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2970,20 +2974,20 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.9596</v>
+        <v>0.9695</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9669</v>
+        <v>0.9756</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>25019228</v>
+        <v>25018221</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2991,251 +2995,251 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.2022</v>
+        <v>0.0793</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1985</v>
+        <v>0.0427</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>25018140</v>
+        <v>25018221</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>18</v>
+        <v>0.0305</v>
       </c>
       <c r="E123" t="n">
-        <v>16.5</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>25018140</v>
+        <v>25018639</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.8599</v>
+        <v>27</v>
       </c>
       <c r="E124" t="n">
-        <v>0.8532999999999999</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>25018140</v>
+        <v>25018639</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.607</v>
+        <v>0.9113</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6178</v>
+        <v>0.9078000000000001</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>25018140</v>
+        <v>25018639</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.4942</v>
+        <v>3</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5019</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>25018140</v>
+        <v>25018183</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.9222</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9151</v>
+        <v>0.9847</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>25018140</v>
+        <v>25018183</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.8754999999999999</v>
+        <v>0.6489</v>
       </c>
       <c r="E128" t="n">
-        <v>0.8726</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>25018140</v>
+        <v>25018183</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.6887</v>
+        <v>0.8931</v>
       </c>
       <c r="E129" t="n">
-        <v>0.695</v>
+        <v>0.8855</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>25018140</v>
+        <v>25018183</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.8249</v>
+        <v>0.8168</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8185</v>
+        <v>0.8779</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>25018140</v>
+        <v>25018183</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.9377</v>
+        <v>0.855</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9305</v>
+        <v>0.8244</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>25018140</v>
+        <v>25018183</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.9066</v>
+        <v>0.145</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8958</v>
+        <v>0.1221</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>25018140</v>
+        <v>25018191</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1.5</v>
+        <v>0.8929</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>0.8839</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>25018140</v>
+        <v>25018191</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3243,419 +3247,417 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.2646</v>
+        <v>0.0804</v>
       </c>
       <c r="E134" t="n">
-        <v>0.2625</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>25018140</v>
+        <v>25018060</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.0272</v>
+        <v>34.5</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0154</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>25018221</v>
+        <v>25018060</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.9451000000000001</v>
+        <v>0.9674</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.9622000000000001</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>25018221</v>
+        <v>25018060</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.8659</v>
+        <v>0.8967000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>0.878</v>
+        <v>0.8919</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>25018221</v>
+        <v>25018060</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.9756</v>
+        <v>0.6957</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9817</v>
+        <v>0.7027</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>25018221</v>
+        <v>25018060</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>2 Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.0915</v>
+        <v>0.9565</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0793</v>
+        <v>0.9676</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.9155</v>
+        <v>0.9185</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9113</v>
+        <v>0.9135</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.7568</v>
+        <v>0.9022</v>
       </c>
       <c r="E141" t="n">
-        <v>0.7543</v>
+        <v>0.9026999999999999</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.5608</v>
+        <v>0.9185</v>
       </c>
       <c r="E142" t="n">
-        <v>0.5666</v>
+        <v>0.9243</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.9426</v>
+        <v>0.9782999999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.9189000000000001</v>
+        <v>0.9782999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9181</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.8277</v>
+        <v>0.1522</v>
       </c>
       <c r="E145" t="n">
-        <v>0.8259</v>
+        <v>0.1568</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>0.9088000000000001</v>
-      </c>
+          <t>% Estudantes sem frequência</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="n">
-        <v>0.9078000000000001</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>I13</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.9797</v>
+        <v>3</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.1655</v>
+        <v>0.038</v>
       </c>
       <c r="E148" t="n">
-        <v>0.1672</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>25018639</v>
+        <v>25018272</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.1723</v>
+        <v>0.973</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1809</v>
+        <v>0.9685</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>25018183</v>
+        <v>25018272</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.9847</v>
+        <v>0.5044999999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9923999999999999</v>
+        <v>0.5225</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>25018183</v>
+        <v>25018272</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>2 Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.6565</v>
+        <v>0.8333</v>
       </c>
       <c r="E151" t="n">
-        <v>0.6489</v>
+        <v>0.8423</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>25018183</v>
+        <v>25018272</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.9313</v>
+        <v>0.7703</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9466</v>
+        <v>0.7883</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>25018183</v>
+        <v>25018272</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.8244</v>
+        <v>0.8874</v>
       </c>
       <c r="E153" t="n">
-        <v>0.8168</v>
+        <v>0.8829</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>25018183</v>
+        <v>25018272</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3663,620 +3665,261 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.9923999999999999</v>
+        <v>0.964</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0.9775</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>25018183</v>
+        <v>25018272</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.8397</v>
+        <v>0.018</v>
       </c>
       <c r="E155" t="n">
-        <v>0.855</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>25018191</v>
+        <v>25018582</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.875</v>
+        <v>0.9167</v>
       </c>
       <c r="E156" t="n">
-        <v>0.8929</v>
+        <v>0.9262</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>25018191</v>
+        <v>25018582</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.7679</v>
+        <v>0.6311</v>
       </c>
       <c r="E157" t="n">
-        <v>0.7857</v>
+        <v>0.6421</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>25018191</v>
+        <v>25018582</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.9732</v>
+        <v>0.5669</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9821</v>
+        <v>0.5929</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>25018191</v>
+        <v>25018582</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>2 Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.8482</v>
+        <v>0.8975</v>
       </c>
       <c r="E159" t="n">
-        <v>0.8571</v>
+        <v>0.9126</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>25018191</v>
+        <v>25018582</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.0982</v>
+        <v>0.9139</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0804</v>
+        <v>0.9126</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>25018191</v>
+        <v>25018582</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.0268</v>
+        <v>0.8197</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0179</v>
+        <v>0.8388</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>25018060</v>
+        <v>25018582</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>33</v>
+        <v>0.944</v>
       </c>
       <c r="E162" t="n">
-        <v>34.5</v>
+        <v>0.9617</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>25018060</v>
+        <v>25018582</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.6902</v>
+        <v>0.9903999999999999</v>
       </c>
       <c r="E163" t="n">
-        <v>0.6957</v>
+        <v>0.9932</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>25018060</v>
+        <v>25018582</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.962</v>
+        <v>0.8839</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9565</v>
+        <v>0.8921</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>25018060</v>
+        <v>25018582</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.8967000000000001</v>
+        <v>0.2022</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9022</v>
+        <v>0.1694</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>25018060</v>
+        <v>25018582</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>I4</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.9185</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>0.1685</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.1522</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>% Estudantes FICAI</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>0.0163</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>0.9685</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.973</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>0.9099</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.9189000000000001</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.5044999999999999</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>2 Expectativa Taxa Aprovação</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>0.8018</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.8333</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Português</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>0.7477</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.7703</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>0.7252</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.7568</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>0.8829</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.8874</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.964</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>0.9139</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.9167</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>0.6257</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.6311</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>0.5656</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.5669</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>0.8825</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.8839</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>0.2049</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.2022</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>% Estudantes FICAI</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="E183" t="n">
         <v>0.0014</v>
       </c>
+      <c r="E166" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/relatorio_diferencas.xlsx
+++ b/relatorio_diferencas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,14 +471,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8504</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>0.859</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -492,14 +492,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6581</v>
+        <v>0.8504</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6838</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="4">
@@ -513,14 +513,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7607</v>
+        <v>0.6581</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8034</v>
+        <v>0.9316</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +534,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8675</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8547</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
@@ -555,98 +555,98 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2179</v>
+        <v>0.8974</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1923</v>
+        <v>0.9145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25019597</v>
+        <v>25017438</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25019597</v>
+        <v>25017438</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9634</v>
+        <v>0.7607</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9814000000000001</v>
+        <v>0.7821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25019597</v>
+        <v>25017438</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8598</v>
+        <v>0.8675</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8882</v>
+        <v>0.8547</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25019597</v>
+        <v>25017438</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5793</v>
+        <v>0.2179</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6273</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="11">
@@ -660,14 +660,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9024</v>
+        <v>31.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9193</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -681,14 +681,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9207</v>
+        <v>0.9634</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9193</v>
+        <v>0.9814000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -702,14 +702,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.75</v>
+        <v>0.8598</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7578</v>
+        <v>0.8944</v>
       </c>
     </row>
     <row r="14">
@@ -723,14 +723,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9695</v>
+        <v>0.5793</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9876</v>
+        <v>0.9565</v>
       </c>
     </row>
     <row r="15">
@@ -744,14 +744,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9573</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9627</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -765,14 +765,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8659</v>
+        <v>0.9207</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9255</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="17">
@@ -786,14 +786,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E17" t="n">
-        <v>1.5</v>
+        <v>0.7578</v>
       </c>
     </row>
     <row r="18">
@@ -807,14 +807,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2012</v>
+        <v>0.9695</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1491</v>
+        <v>0.9938</v>
       </c>
     </row>
     <row r="19">
@@ -828,171 +828,171 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.0244</v>
+        <v>0.9573</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0062</v>
+        <v>0.9627</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25014951</v>
+        <v>25019597</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.7032</v>
+        <v>0.8659</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7078</v>
+        <v>0.9255</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25014951</v>
+        <v>25019597</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9132</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9087</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25014951</v>
+        <v>25019597</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9087</v>
+        <v>0.2012</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9177999999999999</v>
+        <v>0.1491</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25014951</v>
+        <v>25019597</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.105</v>
+        <v>0.0244</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0959</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25014412</v>
+        <v>25014951</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5723</v>
+        <v>34.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5602</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25014412</v>
+        <v>25014951</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9036</v>
+        <v>0.7032</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9217</v>
+        <v>0.9452</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25014412</v>
+        <v>25014951</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8675</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8072</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25014412</v>
+        <v>25014951</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1000,83 +1000,83 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8735000000000001</v>
+        <v>0.9132</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8675</v>
+        <v>0.9087</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25014412</v>
+        <v>25014951</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9699</v>
+        <v>0.9087</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9819</v>
+        <v>0.9177999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25014412</v>
+        <v>25014951</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9458</v>
+        <v>0.105</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9578</v>
+        <v>0.0959</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI MARIA MOREIRA PINTO</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25014412</v>
+        <v>25019740</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.1506</v>
+        <v>0.9691</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1084,199 +1084,199 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9582000000000001</v>
+        <v>0.9458</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9583</v>
+        <v>0.9518</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9011</v>
+        <v>0.5723</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9015</v>
+        <v>0.9759</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.5247000000000001</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6629</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8783</v>
+        <v>0.8675</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8712</v>
+        <v>0.8072</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9087</v>
+        <v>0.8735000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9091</v>
+        <v>0.8675</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.7985</v>
+        <v>0.9699</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8977000000000001</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9202</v>
+        <v>0.9578</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9167</v>
+        <v>0.9819</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.924</v>
+        <v>0.9458</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9167</v>
+        <v>0.9578</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8555</v>
+        <v>0.1506</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9015</v>
+        <v>0.2048</v>
       </c>
     </row>
     <row r="41">
@@ -1290,14 +1290,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="E41" t="n">
-        <v>1.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="42">
@@ -1311,14 +1311,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.1977</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1553</v>
+        <v>0.9583</v>
       </c>
     </row>
     <row r="43">
@@ -1332,14 +1332,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média demais componentes</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.6806</v>
+        <v>0.9011</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6818</v>
+        <v>0.9015</v>
       </c>
     </row>
     <row r="44">
@@ -1353,171 +1353,171 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.0266</v>
+        <v>0.5247000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0189</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25018280</v>
+        <v>25018094</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9194</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9172</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25018280</v>
+        <v>25018094</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6972</v>
+        <v>0.9087</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7277</v>
+        <v>0.9091</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25018280</v>
+        <v>25018094</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9346</v>
+        <v>0.7985</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9368</v>
+        <v>0.8902</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>25018280</v>
+        <v>25018094</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9107</v>
+        <v>0.9202</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9281</v>
+        <v>0.9205</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>25018280</v>
+        <v>25018094</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9281</v>
+        <v>0.924</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9303</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25018280</v>
+        <v>25018094</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.963</v>
+        <v>0.8555</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9739</v>
+        <v>0.9053</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25018280</v>
+        <v>25018094</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.9520999999999999</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9542</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25018280</v>
+        <v>25018094</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1525,20 +1525,20 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.1068</v>
+        <v>0.1977</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0806</v>
+        <v>0.1439</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>25018280</v>
+        <v>25018094</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1546,167 +1546,167 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.6449</v>
+        <v>0.6806</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6427</v>
+        <v>0.6818</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>25017080</v>
+        <v>25018094</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.875</v>
+        <v>0.0266</v>
       </c>
       <c r="E54" t="n">
-        <v>0.881</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>25017080</v>
+        <v>25130242</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.7262</v>
+        <v>42</v>
       </c>
       <c r="E55" t="n">
-        <v>0.75</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>25017080</v>
+        <v>25130242</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.8988</v>
+        <v>0.92</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>25017080</v>
+        <v>25130242</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.9226</v>
+        <v>1.5</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9286</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT ESTADUAL DOUTOR SILVA MARIZ</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>25017080</v>
+        <v>25019538</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.9405</v>
+        <v>0.9897</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25017080</v>
+        <v>25018280</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.1429</v>
+        <v>39</v>
       </c>
       <c r="E59" t="n">
-        <v>0.131</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>25126342</v>
+        <v>25018280</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>45</v>
+        <v>0.9194</v>
       </c>
       <c r="E60" t="n">
-        <v>43.5</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>25126342</v>
+        <v>25018280</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1714,419 +1714,419 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.988</v>
+        <v>0.6972</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9398</v>
+        <v>0.9694</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25126342</v>
+        <v>25018280</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.988</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25126342</v>
+        <v>25018280</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.988</v>
+        <v>0.9107</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0.9301</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>25018124</v>
+        <v>25018280</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>22.5</v>
+        <v>0.9281</v>
       </c>
       <c r="E64" t="n">
-        <v>21</v>
+        <v>0.9258</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>25018124</v>
+        <v>25018280</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.9637</v>
+        <v>0.963</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9689</v>
+        <v>0.9738</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>25018124</v>
+        <v>25018280</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.8497</v>
+        <v>0.9520999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8549</v>
+        <v>0.9540999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>25018124</v>
+        <v>25018280</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.5544</v>
+        <v>0.1068</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5750999999999999</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25018124</v>
+        <v>25018280</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média demais componentes</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.8756</v>
+        <v>0.6449</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8731</v>
+        <v>0.6441</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25018124</v>
+        <v>25017080</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.7979000000000001</v>
+        <v>34.5</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8031</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25018124</v>
+        <v>25017080</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.7668</v>
+        <v>0.875</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7824</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>25018124</v>
+        <v>25017080</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.9404</v>
+        <v>0.7262</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9378</v>
+        <v>0.9405</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>25018124</v>
+        <v>25017080</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>I6</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
         <v>3</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>25018124</v>
+        <v>25017080</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.8212</v>
+        <v>0.8929</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8057</v>
+        <v>0.9048</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>25018124</v>
+        <v>25017080</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.2642</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2513</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>25018124</v>
+        <v>25017080</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.0078</v>
+        <v>0.9226</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0026</v>
+        <v>0.9286</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>25018132</v>
+        <v>25017080</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.9491000000000001</v>
+        <v>0.9405</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9517</v>
+        <v>0.9881</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>25018132</v>
+        <v>25017080</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.9544</v>
+        <v>0.1429</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9571</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>25018132</v>
+        <v>25126342</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.9625</v>
+        <v>0.988</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>25018132</v>
+        <v>25126342</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.7426</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8579</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>25018132</v>
+        <v>25126342</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.0161</v>
+        <v>0.988</v>
       </c>
       <c r="E80" t="n">
-        <v>0.008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2134,20 +2134,20 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.9547</v>
+        <v>0.9637</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9573</v>
+        <v>0.9689</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2155,20 +2155,20 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.768</v>
+        <v>0.8497</v>
       </c>
       <c r="E82" t="n">
-        <v>0.776</v>
+        <v>0.8522999999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2176,209 +2176,209 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.5333</v>
+        <v>0.5544</v>
       </c>
       <c r="E83" t="n">
-        <v>0.528</v>
+        <v>0.9378</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9333</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.8187</v>
+        <v>0.7979000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8133</v>
+        <v>0.8031</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.7252999999999999</v>
+        <v>0.7668</v>
       </c>
       <c r="E86" t="n">
-        <v>0.736</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.9067</v>
+        <v>0.9404</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9093</v>
+        <v>0.9326</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>I6</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.944</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9413</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.28</v>
+        <v>0.8212</v>
       </c>
       <c r="E89" t="n">
-        <v>0.256</v>
+        <v>0.7902</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.0213</v>
+        <v>0.2642</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0133</v>
+        <v>0.2513</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>25018264</v>
+        <v>25018124</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>30</v>
+        <v>0.0078</v>
       </c>
       <c r="E91" t="n">
-        <v>31.5</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>25018264</v>
+        <v>25018132</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.9636</v>
+        <v>39</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9545</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>25018264</v>
+        <v>25018132</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2386,20 +2386,20 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.8818</v>
+        <v>0.9491000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8909</v>
+        <v>0.9517</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>25018264</v>
+        <v>25018132</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2407,188 +2407,188 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.9</v>
+        <v>0.9544</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>25018264</v>
+        <v>25018132</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.9636</v>
+        <v>0.9625</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9727</v>
+        <v>0.9678</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>25018264</v>
+        <v>25018132</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.9636</v>
+        <v>0.7426</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9727</v>
+        <v>0.9115</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>25018264</v>
+        <v>25018132</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.9727</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9636</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>25018264</v>
+        <v>25018132</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.9818</v>
+        <v>0.008</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9909</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>25018264</v>
+        <v>25018132</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.9364</v>
+        <v>0.0161</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9545</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>25018264</v>
+        <v>25018256</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1.5</v>
+        <v>28.5</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>25018264</v>
+        <v>25018256</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.0727</v>
+        <v>0.9547</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0636</v>
+        <v>0.9573</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>25018264</v>
+        <v>25018256</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.0182</v>
+        <v>0.768</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0091</v>
+        <v>0.7813</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>25017071</v>
+        <v>25018256</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2596,377 +2596,377 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.7853</v>
+        <v>0.5333</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8221000000000001</v>
+        <v>0.9707</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>25017071</v>
+        <v>25018256</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.9631999999999999</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9816</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>25017071</v>
+        <v>25018256</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.0675</v>
+        <v>0.8187</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0736</v>
+        <v>0.8133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EEEF RENE ALVES RAMALHO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>25130846</v>
+        <v>25018256</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.9718</v>
+        <v>0.7252999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9577</v>
+        <v>0.7067</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>25019228</v>
+        <v>25018256</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.9301</v>
+        <v>0.9067</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9338</v>
+        <v>0.9093</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>25019228</v>
+        <v>25018256</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.7243000000000001</v>
+        <v>0.968</v>
       </c>
       <c r="E108" t="n">
-        <v>0.7353</v>
+        <v>0.9653</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>25019228</v>
+        <v>25018256</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.6875</v>
+        <v>0.944</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6912</v>
+        <v>0.9413</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>25019228</v>
+        <v>25018256</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.0331</v>
+        <v>0.28</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0184</v>
+        <v>0.2613</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>25018140</v>
+        <v>25018256</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.6178</v>
+        <v>0.0213</v>
       </c>
       <c r="E111" t="n">
-        <v>0.61</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>25018140</v>
+        <v>25018264</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.5019</v>
+        <v>30</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5058</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>25018140</v>
+        <v>25018264</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.9151</v>
+        <v>0.9636</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9189000000000001</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>25018140</v>
+        <v>25018264</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.695</v>
+        <v>0.8818</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7336</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>25018140</v>
+        <v>25018264</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.8958</v>
+        <v>0.9</v>
       </c>
       <c r="E115" t="n">
-        <v>0.8996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>25018140</v>
+        <v>25018264</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.0154</v>
+        <v>1.5</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>25018221</v>
+        <v>25018264</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>36</v>
+        <v>0.9636</v>
       </c>
       <c r="E117" t="n">
-        <v>37.5</v>
+        <v>0.9727</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>25018221</v>
+        <v>25018264</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.9636</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9451000000000001</v>
+        <v>0.9727</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>25018221</v>
+        <v>25018264</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.878</v>
+        <v>0.9727</v>
       </c>
       <c r="E119" t="n">
-        <v>0.8841</v>
+        <v>0.9636</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>25018221</v>
+        <v>25018264</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.9695</v>
+        <v>0.9818</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9756</v>
+        <v>0.9909</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>25018221</v>
+        <v>25018264</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2974,293 +2974,293 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.9695</v>
+        <v>0.9364</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9756</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>25018221</v>
+        <v>25018264</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.0793</v>
+        <v>1.5</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0427</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>25018221</v>
+        <v>25018264</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.0305</v>
+        <v>0.0727</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0183</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>25018639</v>
+        <v>25018264</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>27</v>
+        <v>0.0182</v>
       </c>
       <c r="E124" t="n">
-        <v>25.5</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>25018639</v>
+        <v>25014960</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.9113</v>
+        <v>28.5</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9078000000000001</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>25018639</v>
+        <v>25014960</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>0.822</v>
       </c>
       <c r="E126" t="n">
-        <v>1.5</v>
+        <v>0.9831</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>25018183</v>
+        <v>25014960</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.9923999999999999</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9847</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>25018183</v>
+        <v>25017071</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.6489</v>
+        <v>34.5</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6870000000000001</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>25018183</v>
+        <v>25017071</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.8931</v>
+        <v>0.7853</v>
       </c>
       <c r="E129" t="n">
-        <v>0.8855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>25018183</v>
+        <v>25017071</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.8168</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8779</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>25018183</v>
+        <v>25017071</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.855</v>
+        <v>0.9631999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8244</v>
+        <v>0.9816</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>25018183</v>
+        <v>25017071</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.145</v>
+        <v>0.9877</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1221</v>
+        <v>0.9939</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>25018191</v>
+        <v>25017071</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.8929</v>
+        <v>0.0675</v>
       </c>
       <c r="E133" t="n">
-        <v>0.8839</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEF RENE ALVES RAMALHO</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>25018191</v>
+        <v>25130846</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.0804</v>
+        <v>0.9718</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0893</v>
+        <v>0.9577</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>25018060</v>
+        <v>25018078</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3268,658 +3268,1939 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>34.5</v>
+        <v>24</v>
       </c>
       <c r="E135" t="n">
-        <v>31.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>25018060</v>
+        <v>25018078</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.9674</v>
+        <v>0.5111</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9622000000000001</v>
+        <v>0.9667</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>25018060</v>
+        <v>25018078</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.8967000000000001</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8919</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.6957</v>
+        <v>36</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7027</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.9565</v>
+        <v>0.9301</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9676</v>
+        <v>0.9341</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.9185</v>
+        <v>0.7243000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9135</v>
+        <v>0.7363</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.9022</v>
+        <v>0.6875</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9026999999999999</v>
+        <v>0.9817</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.9185</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9243</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.9782999999999999</v>
+        <v>0.9449</v>
       </c>
       <c r="E143" t="n">
-        <v>0.973</v>
+        <v>0.9414</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.9782999999999999</v>
+        <v>0.9154</v>
       </c>
       <c r="E144" t="n">
-        <v>0.973</v>
+        <v>0.9121</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.1522</v>
+        <v>0.9596</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1568</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>% Estudantes sem frequência</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>% Estudantes &gt; Média em Linguagem</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0.9706</v>
+      </c>
       <c r="E146" t="n">
-        <v>0.0054</v>
+        <v>0.9707</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>I13</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3</v>
+        <v>0.9669</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>0.9634</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.038</v>
+        <v>0.1985</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0216</v>
+        <v>0.1941</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>25018272</v>
+        <v>25019228</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.973</v>
+        <v>0.0331</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9685</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>25018272</v>
+        <v>25018140</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.5044999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5225</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>25018272</v>
+        <v>25018140</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.8333</v>
+        <v>0.8532999999999999</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8423</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>25018272</v>
+        <v>25018140</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.7703</v>
+        <v>0.6178</v>
       </c>
       <c r="E152" t="n">
-        <v>0.7883</v>
+        <v>0.6192</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>25018272</v>
+        <v>25018140</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.8874</v>
+        <v>0.5019</v>
       </c>
       <c r="E153" t="n">
-        <v>0.8829</v>
+        <v>0.9692</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>25018272</v>
+        <v>25018140</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.964</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9775</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>25018272</v>
+        <v>25018140</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.018</v>
+        <v>0.8726</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0135</v>
+        <v>0.8731</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>25018582</v>
+        <v>25018140</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.9167</v>
+        <v>0.695</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9262</v>
+        <v>0.7154</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>25018582</v>
+        <v>25018140</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.6311</v>
+        <v>0.8185</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6421</v>
+        <v>0.8192</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>25018582</v>
+        <v>25018140</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.5669</v>
+        <v>0.9305</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5929</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>25018582</v>
+        <v>25018140</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2 Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.8975</v>
+        <v>0.8958</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9126</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>25018582</v>
+        <v>25018140</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.9139</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9126</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>25018582</v>
+        <v>25018140</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.8197</v>
+        <v>0.2625</v>
       </c>
       <c r="E161" t="n">
-        <v>0.8388</v>
+        <v>0.2692</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>25018582</v>
+        <v>25018140</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.944</v>
+        <v>0.0154</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9617</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>25018582</v>
+        <v>25018221</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.9903999999999999</v>
+        <v>36</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9932</v>
+        <v>42</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>25018582</v>
+        <v>25018221</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.8839</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8921</v>
+        <v>0.9451000000000001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>25018582</v>
+        <v>25018221</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.2022</v>
+        <v>0.878</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1694</v>
+        <v>0.9939</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>25018221</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>25018221</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0.9695</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.9756</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>25018221</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Matemática</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0.9878</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.9756</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>25018221</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0.9695</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.9756</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>25018221</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0.0793</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.0305</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>25018221</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>I11</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>25018221</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>% Estudantes FICAI</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.0183</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>IEG</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>27</v>
+      </c>
+      <c r="E173" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 80%</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0.9113</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.9078000000000001</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>I1</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0.5666</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.9829</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>% Estudantes FICAI</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0.1809</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.198</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>IEG</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 80%</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0.9923999999999999</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.9771</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0.6489</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.9771</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0.8931</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.9084</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Matemática</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0.8168</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.8779</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.8321</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.1221</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>% Estudantes FICAI</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="n">
+        <v>0.0076</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>IEG</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>30</v>
+      </c>
+      <c r="E189" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 90%</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0.8929</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.8839</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0.7857</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.9911</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>0.0804</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.0893</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>IEG</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E194" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 80%</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0.9674</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.9676</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 90%</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>0.8967000000000001</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.8973</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0.6957</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.9838</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0.9185</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.9135</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Matemática</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0.9022</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.9026999999999999</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Humanas</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>0.9185</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.9297</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Linguagem</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0.9782999999999999</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.973</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0.9782999999999999</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.973</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.1459</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>% Estudantes FICAI</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>IEG</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>30</v>
+      </c>
+      <c r="E206" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 80%</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.9685</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 90%</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.9189000000000001</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.9234</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5044999999999999</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.9278999999999999</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.7703</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.7927999999999999</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Humanas</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.8874</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.9009</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>I5</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Linguagem</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.9775</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.8153</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.8604000000000001</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
           <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
-      <c r="B166" t="n">
+      <c r="B216" t="n">
         <v>25018582</v>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>IEG</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>33</v>
+      </c>
+      <c r="E216" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 80%</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.9167</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.9276</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 90%</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.6311</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.6448</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.9727</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.9139</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.9126</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Matemática</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.8197</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.847</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Humanas</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.9754</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Linguagem</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.9973</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.8839</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.8921</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.2022</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.168</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C227" t="inlineStr">
         <is>
           <t>% Estudantes FICAI</t>
         </is>
       </c>
-      <c r="D166" t="n">
+      <c r="D227" t="n">
         <v>0.0014</v>
       </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/relatorio_diferencas.xlsx
+++ b/relatorio_diferencas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,14 +471,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.859</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8632</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="3">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>0.9359</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.9316</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9359</v>
       </c>
     </row>
     <row r="4">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>0.9359</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.9316</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9359</v>
       </c>
     </row>
     <row r="5">
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9145</v>
+        <v>0.906</v>
       </c>
       <c r="E5" t="n">
-        <v>0.906</v>
+        <v>0.8846000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -555,14 +555,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.953</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -576,14 +576,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.188</v>
+        <v>0.7821</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1923</v>
+        <v>0.7778</v>
       </c>
     </row>
     <row r="8">
@@ -597,35 +597,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8547</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25019597</v>
+        <v>25017438</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>0.1923</v>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>0.1795</v>
       </c>
     </row>
     <row r="10">
@@ -639,14 +639,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9565</v>
+        <v>0.8944</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9627</v>
+        <v>0.9068000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -660,14 +660,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9565</v>
+        <v>0.9627</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9627</v>
+        <v>0.9689</v>
       </c>
     </row>
     <row r="12">
@@ -681,14 +681,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.7578</v>
+        <v>0.9627</v>
       </c>
       <c r="E12" t="n">
-        <v>0.764</v>
+        <v>0.9689</v>
       </c>
     </row>
     <row r="13">
@@ -702,14 +702,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.88</v>
+        <v>0.764</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0.8012</v>
       </c>
     </row>
     <row r="14">
@@ -723,56 +723,56 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.9627</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>0.9814000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25014951</v>
+        <v>25019597</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>37.5</v>
+        <v>0.9255</v>
       </c>
       <c r="E15" t="n">
-        <v>40.5</v>
+        <v>0.9317</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25014951</v>
+        <v>25019597</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.88</v>
+        <v>0.1491</v>
       </c>
       <c r="E16" t="n">
-        <v>1.07</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="17">
@@ -786,507 +786,507 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>0.9954</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ECI MARIA MOREIRA PINTO</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25019740</v>
+        <v>25014951</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>46.5</v>
+        <v>0.9452</v>
       </c>
       <c r="E18" t="n">
-        <v>48</v>
+        <v>0.9498</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ECI MARIA MOREIRA PINTO</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25019740</v>
+        <v>25014951</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.92</v>
+        <v>0.9452</v>
       </c>
       <c r="E19" t="n">
-        <v>1.08</v>
+        <v>0.9498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ECI MARIA MOREIRA PINTO</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25019740</v>
+        <v>25014951</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.5</v>
+        <v>0.9268999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>0.9361</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25014412</v>
+        <v>25014951</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8072</v>
+        <v>0.9087</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8855</v>
+        <v>0.9132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25014412</v>
+        <v>25014951</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9578</v>
+        <v>0.9498</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9639</v>
+        <v>0.9635</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25018094</v>
+        <v>25014951</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31.5</v>
+        <v>0.9543</v>
       </c>
       <c r="E23" t="n">
-        <v>33</v>
+        <v>0.9589</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25018094</v>
+        <v>25014951</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9091</v>
+        <v>0.9177999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.928</v>
+        <v>0.9224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25018094</v>
+        <v>25014951</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8902</v>
+        <v>0.0959</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8977000000000001</v>
+        <v>0.0868</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9205</v>
+        <v>37.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9242</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9</v>
+        <v>0.9759</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0.9819</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25018094</v>
+        <v>25014412</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.5</v>
+        <v>0.9759</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>0.9819</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25130242</v>
+        <v>25014412</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.8855</v>
       </c>
       <c r="E29" t="n">
-        <v>1.21</v>
+        <v>0.9337</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ECIT ESTADUAL DOUTOR SILVA MARIZ</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25019538</v>
+        <v>25014412</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25018280</v>
+        <v>25014412</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9694</v>
+        <v>0.8675</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9671999999999999</v>
+        <v>0.8735000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25018280</v>
+        <v>25014412</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9694</v>
+        <v>0.9819</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9671999999999999</v>
+        <v>0.9759</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25018280</v>
+        <v>25014412</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9258</v>
+        <v>0.9639</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9236</v>
+        <v>0.9578</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25018280</v>
+        <v>25014412</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9956</v>
+        <v>0.2048</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9913</v>
+        <v>0.1145</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25018280</v>
+        <v>25018094</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.0786</v>
+        <v>33</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0721</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25018280</v>
+        <v>25018094</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.9583</v>
       </c>
       <c r="E36" t="n">
-        <v>1.16</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25017080</v>
+        <v>25018094</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9821</v>
+        <v>0.9015</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9881</v>
+        <v>0.8977000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25017080</v>
+        <v>25018094</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9405</v>
+        <v>0.928</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9464</v>
+        <v>0.9318</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25017080</v>
+        <v>25018094</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9405</v>
+        <v>0.8977000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9464</v>
+        <v>0.9242</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25017080</v>
+        <v>25018094</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>I4</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9048</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9107</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25017080</v>
+        <v>25018094</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1294,41 +1294,41 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9286</v>
+        <v>0.9242</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9226</v>
+        <v>0.9205</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25017080</v>
+        <v>25018094</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9881</v>
+        <v>0.9167</v>
       </c>
       <c r="E42" t="n">
-        <v>0.994</v>
+        <v>0.9356</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25017080</v>
+        <v>25018094</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1336,532 +1336,530 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.119</v>
+        <v>0.1439</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1071</v>
+        <v>0.1326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25017080</v>
+        <v>25018094</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.0227</v>
       </c>
       <c r="E44" t="n">
-        <v>1.08</v>
+        <v>0.0152</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
+          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25126342</v>
+        <v>25130242</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>43.5</v>
       </c>
       <c r="E45" t="n">
-        <v>1.17</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25018124</v>
+        <v>25130242</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>22.5</v>
+        <v>0.996</v>
       </c>
       <c r="E46" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25018124</v>
+        <v>25130242</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9378</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.9404</v>
-      </c>
+        <v>0.064</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>25018124</v>
+        <v>25130242</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>I11</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9378</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9404</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>25018124</v>
+        <v>25018280</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.5</v>
+        <v>0.9301</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>0.9236</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25018124</v>
+        <v>25018280</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.8446</v>
+        <v>0.9236</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8472</v>
+        <v>0.9367</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25018124</v>
+        <v>25018280</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.8031</v>
+        <v>0.9913</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8135</v>
+        <v>0.9891</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25018124</v>
+        <v>25018280</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.785</v>
+        <v>0.9738</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7979000000000001</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>25018124</v>
+        <v>25018280</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.9326</v>
+        <v>0.9540999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9378</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>25018124</v>
+        <v>25018280</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média demais componentes</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.7902</v>
+        <v>0.6441</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7927</v>
+        <v>0.6463</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>25018124</v>
+        <v>25017080</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.2513</v>
+        <v>0.9464</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2409</v>
+        <v>0.9583</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>25018124</v>
+        <v>25017080</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.52</v>
+        <v>0.9464</v>
       </c>
       <c r="E56" t="n">
-        <v>0.68</v>
+        <v>0.9583</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>25018132</v>
+        <v>25017080</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>40.5</v>
+        <v>0.9107</v>
       </c>
       <c r="E57" t="n">
-        <v>43.5</v>
+        <v>0.9345</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>25018132</v>
+        <v>25017080</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.0107</v>
+        <v>0.9226</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0134</v>
+        <v>0.9345</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25018132</v>
+        <v>25017080</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.64</v>
+        <v>0.1071</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0.1131</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>25018132</v>
+        <v>25018124</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>0.8522999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>0.8575</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>31.5</v>
+        <v>0.9404</v>
       </c>
       <c r="E61" t="n">
-        <v>34.5</v>
+        <v>0.9378</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.7813</v>
+        <v>0.9404</v>
       </c>
       <c r="E62" t="n">
-        <v>0.784</v>
+        <v>0.9378</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.9707</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9733000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.9707</v>
+        <v>0.8472</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9733000000000001</v>
+        <v>0.8575</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.9093</v>
+        <v>0.8135</v>
       </c>
       <c r="E65" t="n">
-        <v>0.904</v>
+        <v>0.8342000000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.2613</v>
+        <v>0.7979000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.28</v>
+        <v>0.8005</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.86</v>
+        <v>0.9378</v>
       </c>
       <c r="E67" t="n">
-        <v>1.1</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25018256</v>
+        <v>25018124</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>I6</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
@@ -1870,599 +1868,599 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25018264</v>
+        <v>25018124</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.9727</v>
+        <v>0.7927</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9818</v>
+        <v>0.8187</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25018264</v>
+        <v>25018124</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.9727</v>
+        <v>0.2409</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9818</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>25018264</v>
+        <v>25018132</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.9636</v>
+        <v>0.9517</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9727</v>
+        <v>0.9544</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>25018264</v>
+        <v>25018132</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.9909</v>
+        <v>0.9678</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0.9705</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>25018264</v>
+        <v>25018132</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.9545</v>
+        <v>0.0134</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9636</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>25018264</v>
+        <v>25018256</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.47</v>
+        <v>34.5</v>
       </c>
       <c r="E74" t="n">
-        <v>0.82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>25014960</v>
+        <v>25018256</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>31.5</v>
+        <v>0.784</v>
       </c>
       <c r="E75" t="n">
-        <v>33</v>
+        <v>0.7707000000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>25014960</v>
+        <v>25018256</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.9153</v>
+        <v>0.9733000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9237</v>
+        <v>0.9653</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>25014960</v>
+        <v>25018256</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.0593</v>
+        <v>0.9733000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0508</v>
+        <v>0.9653</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>25014960</v>
+        <v>25018256</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.64</v>
+        <v>0.8133</v>
       </c>
       <c r="E78" t="n">
-        <v>0.91</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>25014960</v>
+        <v>25018256</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>0.904</v>
       </c>
       <c r="E79" t="n">
-        <v>1.5</v>
+        <v>0.8827</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>25017071</v>
+        <v>25018256</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>37.5</v>
+        <v>1.5</v>
       </c>
       <c r="E80" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>25017071</v>
+        <v>25018256</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.9693000000000001</v>
+        <v>0.9413</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9755</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>25017071</v>
+        <v>25018256</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.9755</v>
+        <v>0.28</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9816</v>
+        <v>0.2827</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>25017071</v>
+        <v>25018256</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.71</v>
+        <v>0.0133</v>
       </c>
       <c r="E83" t="n">
-        <v>1.21</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>25017071</v>
+        <v>25018264</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EEEF RENE ALVES RAMALHO</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>25130846</v>
+        <v>25018264</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.9859</v>
+        <v>0.9545</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0.9633</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EEEF RENE ALVES RAMALHO</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>25130846</v>
+        <v>25018264</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="E86" t="n">
-        <v>0.62</v>
+        <v>0.9266</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>25018078</v>
+        <v>25018264</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>27</v>
+        <v>0.9818</v>
       </c>
       <c r="E87" t="n">
-        <v>30</v>
+        <v>0.9817</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>25018078</v>
+        <v>25018264</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9818</v>
       </c>
       <c r="E88" t="n">
-        <v>0.98</v>
+        <v>0.9908</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>25018078</v>
+        <v>25018264</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>0.9727</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>0.9908</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>25019228</v>
+        <v>25018264</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.7363</v>
+        <v>0.9636</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7399</v>
+        <v>0.9633</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>25019228</v>
+        <v>25018264</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.956</v>
+        <v>0.0636</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9597</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>25019228</v>
+        <v>25018264</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>I11</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.0183</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0293</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>25019228</v>
+        <v>25018264</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.73</v>
+        <v>0.0091</v>
       </c>
       <c r="E93" t="n">
-        <v>0.88</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>25018140</v>
+        <v>25014960</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.8192</v>
+        <v>0.9831</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8231000000000001</v>
+        <v>0.9746</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>25018140</v>
+        <v>25017071</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.76</v>
+        <v>0.9202</v>
       </c>
       <c r="E95" t="n">
-        <v>0.83</v>
+        <v>0.9448</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEF RENE ALVES RAMALHO</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>25018221</v>
+        <v>25130846</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.5</v>
+        <v>0.9577</v>
       </c>
       <c r="E96" t="n">
-        <v>0.62</v>
+        <v>0.9718</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>25018639</v>
+        <v>25018078</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2470,20 +2468,20 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.9829</v>
+        <v>0.9667</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9795</v>
+        <v>0.9722</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>25018639</v>
+        <v>25018078</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2491,556 +2489,1415 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.9829</v>
+        <v>0.9667</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9795</v>
+        <v>0.9722</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>25018639</v>
+        <v>25018078</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.198</v>
+        <v>0.9722</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2048</v>
+        <v>0.9778</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>25018639</v>
+        <v>25018078</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.36</v>
+        <v>0.2833</v>
       </c>
       <c r="E100" t="n">
-        <v>0.71</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>25018183</v>
+        <v>25018078</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>IEG</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>30</v>
-      </c>
+          <t>% Estudantes FICAI</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>33</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>25018183</v>
+        <v>25019228</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.59</v>
+        <v>0.9341</v>
       </c>
       <c r="E102" t="n">
-        <v>1.24</v>
+        <v>0.9377</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>25018183</v>
+        <v>25019228</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>I16</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>0.9414</v>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>0.9487</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>25018191</v>
+        <v>25019228</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.8571</v>
+        <v>0.9121</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8929</v>
+        <v>0.9084</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>25018191</v>
+        <v>25019228</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.0893</v>
+        <v>0.9707</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.9744</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>25018191</v>
+        <v>25019228</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.21</v>
+        <v>0.9634</v>
       </c>
       <c r="E106" t="n">
-        <v>0.85</v>
+        <v>0.9707</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>25018272</v>
+        <v>25019228</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>33</v>
+        <v>0.1941</v>
       </c>
       <c r="E107" t="n">
-        <v>34.5</v>
+        <v>0.1795</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>25018272</v>
+        <v>25019228</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.9685</v>
+        <v>0.0293</v>
       </c>
       <c r="E108" t="n">
-        <v>0.973</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>25018272</v>
+        <v>25018140</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.9278999999999999</v>
+        <v>0.8731</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9414</v>
+        <v>0.8808</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>25018272</v>
+        <v>25018140</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.9278999999999999</v>
+        <v>0.7154</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9414</v>
+        <v>0.7423</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>25018272</v>
+        <v>25018140</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1.5</v>
+        <v>0.2692</v>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>0.2538</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>25018272</v>
+        <v>25018221</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.7568</v>
+        <v>0.9878</v>
       </c>
       <c r="E112" t="n">
-        <v>0.7883</v>
+        <v>0.9877</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>25018272</v>
+        <v>25018221</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.8604000000000001</v>
+        <v>0.9451000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>0.8919</v>
+        <v>0.9509</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>25018272</v>
+        <v>25018221</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.2793</v>
+        <v>0.9756</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2568</v>
+        <v>0.9939</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>25018272</v>
+        <v>25018221</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0.9756</v>
       </c>
       <c r="E115" t="n">
-        <v>1.22</v>
+        <v>0.9755</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>25018582</v>
+        <v>25018221</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>36</v>
+        <v>0.9817</v>
       </c>
       <c r="E116" t="n">
-        <v>37.5</v>
+        <v>0.9816</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>25018582</v>
+        <v>25018221</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.6448</v>
+        <v>0.9756</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6462</v>
+        <v>0.9816</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>25018582</v>
+        <v>25018221</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.9727</v>
+        <v>0.0305</v>
       </c>
       <c r="E118" t="n">
-        <v>0.974</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>25018582</v>
+        <v>25018221</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.9727</v>
+        <v>0.0183</v>
       </c>
       <c r="E119" t="n">
-        <v>0.974</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>25018582</v>
+        <v>25018639</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.9126</v>
+        <v>0.9078000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9139</v>
+        <v>0.9094</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>25018582</v>
+        <v>25018639</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.9754</v>
+        <v>0.7543</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9809</v>
+        <v>0.7665999999999999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>25018582</v>
+        <v>25018639</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.168</v>
+        <v>0.9795</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1653</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>25018582</v>
+        <v>25018639</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>% Participação Professores em Formações</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.92</v>
+        <v>0.9795</v>
       </c>
       <c r="E123" t="n">
-        <v>0.95</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.9181</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.9233</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Matemática</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.8259</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.8362000000000001</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Humanas</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.9078000000000001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.9129</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.9898</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.1672</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.1498</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>% Estudantes FICAI</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.2048</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.1394</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.9771</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.9847</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação.1</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.9771</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.9847</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0.8321</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.8397</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>IEG</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>33</v>
+      </c>
+      <c r="E133" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Matemática</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.9464</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>I4</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Linguagem</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.8929</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.9196</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0.07140000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.0536</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>% Estudantes FICAI</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0268</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 80%</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.9676</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.9622000000000001</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Linguagem</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.9784</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.9622000000000001</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0.1459</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.1514</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>% Estudantes FICAI</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.0378</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>IEG</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0.7927999999999999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.8198</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Matemática</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0.7883</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.8514</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Humanas</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0.9009</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.9414</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>I5</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0.8919</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.9009</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.2297</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
           <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B154" t="n">
         <v>25018582</v>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>I16</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>IEG</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 80%</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0.9276</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.9303</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 90%</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0.6462</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.6503</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.9795</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação.1</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.9795</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0.9139</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.9276</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Matemática</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.9071</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>I4</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
         <v>1.5</v>
       </c>
-      <c r="E124" t="n">
-        <v>3</v>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Humanas</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0.9809</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0.8921</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.9167</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0.1653</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.1516</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_diferencas.xlsx
+++ b/relatorio_diferencas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +475,10 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E2" t="n">
         <v>36</v>
-      </c>
-      <c r="E2" t="n">
-        <v>34.5</v>
       </c>
     </row>
     <row r="3">
@@ -492,14 +492,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9359</v>
+        <v>0.8632</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9316</v>
+        <v>0.8675</v>
       </c>
     </row>
     <row r="4">
@@ -513,14 +513,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9359</v>
+        <v>0.9316</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9316</v>
+        <v>0.9402</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +534,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.906</v>
+        <v>0.9316</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8846000000000001</v>
+        <v>0.9402</v>
       </c>
     </row>
     <row r="6">
@@ -555,14 +555,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>I3</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -576,14 +576,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7821</v>
+        <v>0.8846000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7778</v>
+        <v>0.8889</v>
       </c>
     </row>
     <row r="8">
@@ -597,14 +597,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8547</v>
+        <v>0.7778</v>
       </c>
       <c r="E8" t="n">
-        <v>0.859</v>
+        <v>0.7906</v>
       </c>
     </row>
     <row r="9">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1923</v>
+        <v>0.1795</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1795</v>
+        <v>0.1538</v>
       </c>
     </row>
     <row r="10">
@@ -639,14 +639,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8944</v>
+        <v>0.9689</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9068000000000001</v>
+        <v>0.9814000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -660,14 +660,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9627</v>
+        <v>0.9689</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9689</v>
+        <v>0.9814000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -681,14 +681,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9627</v>
+        <v>0.913</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9689</v>
+        <v>0.9379</v>
       </c>
     </row>
     <row r="13">
@@ -702,77 +702,77 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.764</v>
+        <v>0.1118</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8012</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25019597</v>
+        <v>25014951</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9627</v>
+        <v>40.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9814000000000001</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25019597</v>
+        <v>25014951</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9255</v>
+        <v>0.9954</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25019597</v>
+        <v>25014951</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1491</v>
+        <v>0.9361</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1118</v>
+        <v>0.9498</v>
       </c>
     </row>
     <row r="17">
@@ -786,14 +786,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9954</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -807,14 +807,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9452</v>
+        <v>0.9132</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9498</v>
+        <v>0.9087</v>
       </c>
     </row>
     <row r="19">
@@ -828,14 +828,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9452</v>
+        <v>0.9635</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9498</v>
+        <v>0.9543</v>
       </c>
     </row>
     <row r="20">
@@ -849,14 +849,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D20" t="n">
+        <v>0.9224</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.9268999999999999</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9361</v>
       </c>
     </row>
     <row r="21">
@@ -870,2246 +870,2248 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9087</v>
+        <v>0.0868</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9132</v>
+        <v>0.0822</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI MARIA MOREIRA PINTO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25014951</v>
+        <v>25019740</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9498</v>
+        <v>0.9877</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9635</v>
+        <v>0.9938</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI MARIA MOREIRA PINTO</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25014951</v>
+        <v>25019740</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9543</v>
+        <v>0.9691</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9589</v>
+        <v>0.9752999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25014951</v>
+        <v>25014412</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9177999999999999</v>
+        <v>0.1145</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9224</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25014951</v>
+        <v>25018094</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.0959</v>
+        <v>0.8977000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0868</v>
+        <v>0.9015</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37.5</v>
+        <v>0.928</v>
       </c>
       <c r="E26" t="n">
-        <v>39</v>
+        <v>0.9318</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9759</v>
+        <v>0.928</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9819</v>
+        <v>0.9318</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9759</v>
+        <v>0.9053</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9819</v>
+        <v>0.9091</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8855</v>
+        <v>0.1326</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9337</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25014412</v>
+        <v>25018094</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>I3</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.0152</v>
       </c>
       <c r="E30" t="n">
-        <v>1.5</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25014412</v>
+        <v>25018280</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8675</v>
+        <v>42</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8735000000000001</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25014412</v>
+        <v>25018280</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9819</v>
+        <v>0.917</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9759</v>
+        <v>0.9236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25014412</v>
+        <v>25018280</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9639</v>
+        <v>0.9671999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9578</v>
+        <v>0.9782</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25014412</v>
+        <v>25018280</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.2048</v>
+        <v>0.9671999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1145</v>
+        <v>0.9782</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>33</v>
+        <v>0.9236</v>
       </c>
       <c r="E35" t="n">
-        <v>34.5</v>
+        <v>0.9258</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9583</v>
+        <v>0.9367</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9545</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>I4</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9015</v>
+        <v>1.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8977000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.928</v>
+        <v>0.952</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9318</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8977000000000001</v>
+        <v>0.0721</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9242</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25018094</v>
+        <v>25017080</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>I4</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.9881</v>
       </c>
       <c r="E40" t="n">
-        <v>1.5</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25018094</v>
+        <v>25017080</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9242</v>
+        <v>0.881</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9205</v>
+        <v>0.8929</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25018094</v>
+        <v>25017080</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9167</v>
+        <v>0.9583</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9356</v>
+        <v>0.9821</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25018094</v>
+        <v>25017080</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.1439</v>
+        <v>0.9583</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1326</v>
+        <v>0.9821</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25018094</v>
+        <v>25017080</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.0227</v>
+        <v>0.9345</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0152</v>
+        <v>0.9107</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25130242</v>
+        <v>25017080</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>43.5</v>
+        <v>0.9643</v>
       </c>
       <c r="E45" t="n">
-        <v>46.5</v>
+        <v>0.9762</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25130242</v>
+        <v>25017080</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.996</v>
+        <v>0.1131</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0.09520000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25130242</v>
+        <v>25017080</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média demais componentes</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
+        <v>0.994</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>25130242</v>
+        <v>25018124</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>I11</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>25018280</v>
+        <v>25018124</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9301</v>
+        <v>0.9689</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9236</v>
+        <v>0.9741</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25018280</v>
+        <v>25018124</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.9236</v>
+        <v>0.8575</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9367</v>
+        <v>0.8679</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25018280</v>
+        <v>25018124</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.9913</v>
+        <v>0.9378</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9891</v>
+        <v>0.9637</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25018280</v>
+        <v>25018124</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.9738</v>
+        <v>0.9378</v>
       </c>
       <c r="E52" t="n">
-        <v>0.976</v>
+        <v>0.9637</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>25018280</v>
+        <v>25018124</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.9540999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="E53" t="n">
-        <v>0.952</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>25018280</v>
+        <v>25018124</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média demais componentes</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.6441</v>
+        <v>0.2098</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6463</v>
+        <v>0.2073</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>25017080</v>
+        <v>25018124</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.9464</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.9583</v>
-      </c>
+        <v>0.0026</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>25017080</v>
+        <v>25018132</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.9464</v>
+        <v>0.9893</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9583</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>25017080</v>
+        <v>25018132</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.9107</v>
+        <v>0.9544</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9345</v>
+        <v>0.9517</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>25017080</v>
+        <v>25018132</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.9226</v>
+        <v>0.9705</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9345</v>
+        <v>0.9759</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25017080</v>
+        <v>25018256</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.1071</v>
+        <v>0.7707000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1131</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>25018124</v>
+        <v>25018256</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.8522999999999999</v>
+        <v>0.9653</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8575</v>
+        <v>0.9893</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>25018124</v>
+        <v>25018256</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.9404</v>
+        <v>0.9653</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9378</v>
+        <v>0.9893</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25018124</v>
+        <v>25018256</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.9404</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9378</v>
+        <v>0.7893</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25018124</v>
+        <v>25018256</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>0.7067</v>
       </c>
       <c r="E63" t="n">
-        <v>1.5</v>
+        <v>0.7307</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>25018124</v>
+        <v>25018256</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.8472</v>
+        <v>0.8827</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8575</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>25018124</v>
+        <v>25018256</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.8135</v>
+        <v>0.944</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8342000000000001</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>25018124</v>
+        <v>25018256</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.7979000000000001</v>
+        <v>0.2827</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8005</v>
+        <v>0.2187</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>25018124</v>
+        <v>25018264</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.9378</v>
+        <v>0.0367</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25018124</v>
+        <v>25014960</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>I6</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.5</v>
+        <v>33</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25018124</v>
+        <v>25014960</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.7927</v>
+        <v>0.9746</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8187</v>
+        <v>0.9915</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25018124</v>
+        <v>25014960</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.2409</v>
+        <v>0.9237</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2098</v>
+        <v>0.9492</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>25018132</v>
+        <v>25014960</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.9517</v>
+        <v>0.9831</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>25018132</v>
+        <v>25014960</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.9678</v>
+        <v>0.9831</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>25018132</v>
+        <v>25014960</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.0134</v>
+        <v>0.9322</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0054</v>
+        <v>0.9407</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>25018256</v>
+        <v>25014960</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>34.5</v>
+        <v>1.5</v>
       </c>
       <c r="E74" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>25018256</v>
+        <v>25014960</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.784</v>
+        <v>0.0508</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7707000000000001</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>25018256</v>
+        <v>25014960</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>I11</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.9733000000000001</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9653</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF RENE ALVES RAMALHO</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>25018256</v>
+        <v>25130846</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.9733000000000001</v>
+        <v>0.9718</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9653</v>
+        <v>0.9577</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>25018256</v>
+        <v>25018078</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.8133</v>
+        <v>0.9667</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.9655</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>25018256</v>
+        <v>25018078</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.904</v>
+        <v>0.8444</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8827</v>
+        <v>0.8563</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>25018256</v>
+        <v>25018078</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1.5</v>
+        <v>0.9722</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>25018256</v>
+        <v>25018078</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.9413</v>
+        <v>0.9722</v>
       </c>
       <c r="E81" t="n">
-        <v>0.944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>25018256</v>
+        <v>25018078</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.28</v>
+        <v>0.8278</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2827</v>
+        <v>0.8448</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>25018256</v>
+        <v>25018078</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.0133</v>
+        <v>0.6611</v>
       </c>
       <c r="E83" t="n">
-        <v>0.008</v>
+        <v>0.6724</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>25018264</v>
+        <v>25018078</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>33</v>
+        <v>0.9167</v>
       </c>
       <c r="E84" t="n">
-        <v>36</v>
+        <v>0.9195</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>25018264</v>
+        <v>25018078</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.9545</v>
+        <v>0.9778</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9633</v>
+        <v>0.9943</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>25018264</v>
+        <v>25018078</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.9</v>
+        <v>0.8167</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9266</v>
+        <v>0.8563</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>25018264</v>
+        <v>25018078</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.9818</v>
+        <v>0.2778</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9817</v>
+        <v>0.2069</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>25018264</v>
+        <v>25018078</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.9818</v>
+        <v>0.0056</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9908</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>25018264</v>
+        <v>25019228</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.9727</v>
+        <v>0.9377</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9908</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>25018264</v>
+        <v>25019228</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.9636</v>
+        <v>0.7399</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9633</v>
+        <v>0.7426</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>25018264</v>
+        <v>25019228</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.0636</v>
+        <v>0.9817</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0367</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>25018264</v>
+        <v>25019228</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>I11</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>0.9817</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>25018264</v>
+        <v>25019228</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.0091</v>
+        <v>0.9487</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0183</v>
+        <v>0.9669</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>25014960</v>
+        <v>25019228</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.9831</v>
+        <v>0.9084</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9746</v>
+        <v>0.9118000000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>25017071</v>
+        <v>25019228</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.9202</v>
+        <v>0.9597</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9448</v>
+        <v>0.9706</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EEEF RENE ALVES RAMALHO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>25130846</v>
+        <v>25019228</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.9577</v>
+        <v>0.9744</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9718</v>
+        <v>0.9743000000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>25018078</v>
+        <v>25019228</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.9667</v>
+        <v>0.9707</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9722</v>
+        <v>0.9743000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>25018078</v>
+        <v>25019228</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.9667</v>
+        <v>0.1795</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9722</v>
+        <v>0.1287</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>25018078</v>
+        <v>25019228</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.9722</v>
+        <v>0.0256</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9778</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>25018078</v>
+        <v>25018140</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.2833</v>
+        <v>0.85</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2778</v>
+        <v>0.8462</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>25018078</v>
+        <v>25018140</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>Expectativa Taxa Aprovação</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9692</v>
+      </c>
       <c r="E101" t="n">
-        <v>0.0056</v>
+        <v>0.9885</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>25019228</v>
+        <v>25018140</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.9341</v>
+        <v>0.9692</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9377</v>
+        <v>0.9885</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>25019228</v>
+        <v>25018140</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.9414</v>
+        <v>0.7423</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9487</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>25019228</v>
+        <v>25018140</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.9121</v>
+        <v>0.8231000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9084</v>
+        <v>0.8346</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>25019228</v>
+        <v>25018140</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.9707</v>
+        <v>0.2538</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9744</v>
+        <v>0.2346</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>25019228</v>
+        <v>25018221</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.9634</v>
+        <v>0.9755</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9707</v>
+        <v>0.9877</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>25019228</v>
+        <v>25018221</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.1941</v>
+        <v>0.9939</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1795</v>
+        <v>0.9877</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>25019228</v>
+        <v>25018639</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.0293</v>
+        <v>0.9094</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0256</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>25018140</v>
+        <v>25018639</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.8731</v>
+        <v>0.7665999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.8808</v>
+        <v>0.7596000000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>25018140</v>
+        <v>25018639</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.7154</v>
+        <v>0.993</v>
       </c>
       <c r="E110" t="n">
-        <v>0.7423</v>
+        <v>0.9965000000000001</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>25018140</v>
+        <v>25018639</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.2692</v>
+        <v>0.993</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2538</v>
+        <v>0.9965000000000001</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>25018221</v>
+        <v>25018639</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.9878</v>
+        <v>0.9233</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9877</v>
+        <v>0.9268</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>25018221</v>
+        <v>25018639</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.9451000000000001</v>
+        <v>0.8362000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9509</v>
+        <v>0.8467</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>25018221</v>
+        <v>25018639</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.9756</v>
+        <v>0.1498</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9939</v>
+        <v>0.1394</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>25018221</v>
+        <v>25018639</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.9756</v>
+        <v>0.1394</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9755</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>25018221</v>
+        <v>25018183</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.9817</v>
+        <v>33</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9816</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>25018221</v>
+        <v>25018183</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.9756</v>
+        <v>0.9237</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9816</v>
+        <v>0.9313</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>25018221</v>
+        <v>25018183</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.0305</v>
+        <v>0.9847</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>25018221</v>
+        <v>25018183</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.0183</v>
+        <v>0.9847</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>25018639</v>
+        <v>25018183</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.9078000000000001</v>
+        <v>0.9084</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9094</v>
+        <v>0.9466</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>25018639</v>
+        <v>25018183</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.7543</v>
+        <v>1.5</v>
       </c>
       <c r="E121" t="n">
-        <v>0.7665999999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>25018639</v>
+        <v>25018183</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.9795</v>
+        <v>0.8397</v>
       </c>
       <c r="E122" t="n">
-        <v>0.993</v>
+        <v>0.8473000000000001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>25018639</v>
+        <v>25018183</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.9795</v>
+        <v>0.1221</v>
       </c>
       <c r="E123" t="n">
-        <v>0.993</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>25018639</v>
+        <v>25018191</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.9181</v>
+        <v>36</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9233</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>25018639</v>
+        <v>25018191</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.8259</v>
+        <v>0.9911</v>
       </c>
       <c r="E125" t="n">
-        <v>0.8362000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>25018639</v>
+        <v>25018191</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.9078000000000001</v>
+        <v>0.9911</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>25018639</v>
+        <v>25018191</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.9898</v>
+        <v>0.9732</v>
       </c>
       <c r="E127" t="n">
-        <v>0.993</v>
+        <v>0.9821</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>25018639</v>
+        <v>25018191</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3117,217 +3119,217 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.1672</v>
+        <v>0.0536</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1498</v>
+        <v>0.0446</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>25018639</v>
+        <v>25018191</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>I11</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.2048</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1394</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>25018183</v>
+        <v>25018060</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.9771</v>
+        <v>37.5</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9847</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>25018183</v>
+        <v>25018060</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.9771</v>
+        <v>0.9135</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9847</v>
+        <v>0.8919</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>25018183</v>
+        <v>25018060</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.8321</v>
+        <v>1.5</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>25018191</v>
+        <v>25018060</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>33</v>
+        <v>0.9297</v>
       </c>
       <c r="E133" t="n">
-        <v>36</v>
+        <v>0.9243</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>25018191</v>
+        <v>25018060</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.9375</v>
+        <v>0.9784</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9464</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>25018191</v>
+        <v>25018060</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>I4</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1.5</v>
+        <v>0.9622000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>3</v>
+        <v>0.9568</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>25018191</v>
+        <v>25018060</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.9911</v>
+        <v>0.1514</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0.1405</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>25018191</v>
+        <v>25018060</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.8929</v>
+        <v>0.0378</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9196</v>
+        <v>0.0432</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>25018191</v>
+        <v>25018060</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>I15</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E138" t="n">
         <v>1.5</v>
@@ -3336,148 +3338,148 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>25018191</v>
+        <v>25018272</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.973</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0536</v>
+        <v>0.9685</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>25018191</v>
+        <v>25018272</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.0179</v>
+        <v>0.9234</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0268</v>
+        <v>0.9189000000000001</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>25018060</v>
+        <v>25018272</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.9676</v>
+        <v>0.9414</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9622000000000001</v>
+        <v>0.9685</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>25018060</v>
+        <v>25018272</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.973</v>
+        <v>0.9414</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9784</v>
+        <v>0.9685</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>25018060</v>
+        <v>25018272</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.973</v>
+        <v>0.8198</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9622000000000001</v>
+        <v>0.8243</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>25018060</v>
+        <v>25018272</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.1459</v>
+        <v>0.9414</v>
       </c>
       <c r="E144" t="n">
-        <v>0.1514</v>
+        <v>0.9459</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>25018060</v>
+        <v>25018272</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.027</v>
+        <v>0.9009</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0378</v>
+        <v>0.9144</v>
       </c>
     </row>
     <row r="146">
@@ -3491,161 +3493,161 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>34.5</v>
+        <v>0.2297</v>
       </c>
       <c r="E146" t="n">
-        <v>37.5</v>
+        <v>0.1036</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>25018272</v>
+        <v>25018582</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.7927999999999999</v>
+        <v>0.9303</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8198</v>
+        <v>0.9358</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>25018272</v>
+        <v>25018582</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.7883</v>
+        <v>0.6503</v>
       </c>
       <c r="E148" t="n">
-        <v>0.8514</v>
+        <v>0.6626</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>25018272</v>
+        <v>25018582</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.9009</v>
+        <v>0.9795</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9414</v>
+        <v>0.9932</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>25018272</v>
+        <v>25018582</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1.5</v>
+        <v>0.9795</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>0.9932</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>25018272</v>
+        <v>25018582</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.8919</v>
+        <v>0.9276</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9009</v>
+        <v>0.9344</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>25018272</v>
+        <v>25018582</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>0.9071</v>
       </c>
       <c r="E152" t="n">
-        <v>1.5</v>
+        <v>0.9153</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>25018272</v>
+        <v>25018582</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.2568</v>
+        <v>0.985</v>
       </c>
       <c r="E153" t="n">
-        <v>0.2297</v>
+        <v>0.9877</v>
       </c>
     </row>
     <row r="154">
@@ -3659,14 +3661,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>37.5</v>
+        <v>0.9973</v>
       </c>
       <c r="E154" t="n">
-        <v>40.5</v>
+        <v>0.9986</v>
       </c>
     </row>
     <row r="155">
@@ -3680,14 +3682,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.9276</v>
+        <v>0.9167</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9303</v>
+        <v>0.9358</v>
       </c>
     </row>
     <row r="156">
@@ -3701,203 +3703,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.6462</v>
+        <v>0.1516</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6503</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>0.974</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.9795</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação.1</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>0.974</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.9795</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Português</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>0.9139</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.9276</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>0.847</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.9071</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>I4</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>0.9809</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.985</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>0.8921</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.9167</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>I7</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>0.1653</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.1516</v>
+        <v>0.1284</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_diferencas.xlsx
+++ b/relatorio_diferencas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +475,10 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E2" t="n">
         <v>34.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -492,14 +492,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8632</v>
+        <v>0.9402</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8675</v>
+        <v>0.9444</v>
       </c>
     </row>
     <row r="4">
@@ -513,14 +513,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9316</v>
+        <v>0.9402</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9402</v>
+        <v>0.9444</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +534,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9316</v>
+        <v>0.7906</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9402</v>
+        <v>0.8205</v>
       </c>
     </row>
     <row r="6">
@@ -555,14 +555,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>0.9402</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0.9274</v>
       </c>
     </row>
     <row r="7">
@@ -576,14 +576,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8846000000000001</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8889</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -597,14 +597,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7778</v>
+        <v>0.859</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7906</v>
+        <v>0.8889</v>
       </c>
     </row>
     <row r="9">
@@ -622,20 +622,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1795</v>
+        <v>0.1538</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1538</v>
+        <v>0.1453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25019597</v>
+        <v>25014951</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -643,20 +643,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9689</v>
+        <v>0.9498</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9814000000000001</v>
+        <v>0.9540999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25019597</v>
+        <v>25014951</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -664,20 +664,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9689</v>
+        <v>0.9498</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9814000000000001</v>
+        <v>0.9540999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25019597</v>
+        <v>25014951</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -685,31 +685,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.913</v>
+        <v>0.9498</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9379</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ECI DORGIVAL SILVEIRA</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25019597</v>
+        <v>25014951</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.1118</v>
+        <v>0.9087</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1056</v>
+        <v>0.9083</v>
       </c>
     </row>
     <row r="14">
@@ -723,14 +723,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40.5</v>
+        <v>0.9543</v>
       </c>
       <c r="E14" t="n">
-        <v>42</v>
+        <v>0.9587</v>
       </c>
     </row>
     <row r="15">
@@ -744,14 +744,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9954</v>
+        <v>0.9589</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0.9587</v>
       </c>
     </row>
     <row r="16">
@@ -765,14 +765,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9361</v>
+        <v>0.9268999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9498</v>
+        <v>0.9358</v>
       </c>
     </row>
     <row r="17">
@@ -786,24 +786,24 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>I3</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0.0822</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>0.07340000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI MARIA MOREIRA PINTO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25014951</v>
+        <v>25019740</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -811,62 +811,62 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9132</v>
+        <v>0.9752999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9087</v>
+        <v>0.9815</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25014951</v>
+        <v>25014412</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9635</v>
+        <v>0.1205</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9543</v>
+        <v>0.1084</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25014951</v>
+        <v>25018094</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9224</v>
+        <v>0.9545</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9268999999999999</v>
+        <v>0.9583</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25014951</v>
+        <v>25018094</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -874,20 +874,20 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0868</v>
+        <v>0.125</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0822</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ECI MARIA MOREIRA PINTO</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25019740</v>
+        <v>25018280</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -895,671 +895,669 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9877</v>
+        <v>0.9236</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9938</v>
+        <v>0.9258</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ECI MARIA MOREIRA PINTO</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25019740</v>
+        <v>25018280</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9691</v>
+        <v>0.9782</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9752999999999999</v>
+        <v>0.9802999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25014412</v>
+        <v>25018280</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.1145</v>
+        <v>0.9782</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1205</v>
+        <v>0.9802999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8977000000000001</v>
+        <v>0.9891</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9015</v>
+        <v>0.9913</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.928</v>
+        <v>0.976</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9318</v>
+        <v>0.9802999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.928</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9318</v>
+        <v>0.9540999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25018094</v>
+        <v>25018280</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9053</v>
+        <v>0.0633</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9091</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25018094</v>
+        <v>25018256</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.1326</v>
+        <v>33</v>
       </c>
       <c r="E29" t="n">
-        <v>0.125</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25018094</v>
+        <v>25018256</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.0152</v>
+        <v>0.776</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0189</v>
+        <v>0.7813</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25018280</v>
+        <v>25018256</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>42</v>
+        <v>0.7893</v>
       </c>
       <c r="E31" t="n">
-        <v>43.5</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25018280</v>
+        <v>25018256</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.917</v>
+        <v>0.888</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9236</v>
+        <v>0.9013</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25018280</v>
+        <v>25018256</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9671999999999999</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9782</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25018280</v>
+        <v>25018256</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9671999999999999</v>
+        <v>0.9653</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9782</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25018280</v>
+        <v>25018256</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9236</v>
+        <v>0.952</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9258</v>
+        <v>0.9627</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25018280</v>
+        <v>25018256</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9367</v>
+        <v>0.2187</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.2133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25018280</v>
+        <v>25018256</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>I4</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.5</v>
+        <v>0.008</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25018280</v>
+        <v>25018264</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.952</v>
+        <v>0.9817</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9409999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25018280</v>
+        <v>25014960</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.0721</v>
+        <v>0.9407</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0633</v>
+        <v>0.9492</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25017080</v>
+        <v>25017071</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9881</v>
+        <v>40.5</v>
       </c>
       <c r="E40" t="n">
-        <v>0.994</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25017080</v>
+        <v>25017071</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.881</v>
+        <v>0.0552</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8929</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25017080</v>
+        <v>25017071</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>I11</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9583</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9821</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25017080</v>
+        <v>25018078</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9583</v>
+        <v>0.6724</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9821</v>
+        <v>0.7184</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25017080</v>
+        <v>25018078</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9345</v>
+        <v>0.2069</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9107</v>
+        <v>0.1954</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25017080</v>
+        <v>25018078</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9643</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.9762</v>
-      </c>
+        <v>0.0057</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25017080</v>
+        <v>25019228</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.1131</v>
+        <v>0.9375</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.9449</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25017080</v>
+        <v>25019228</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média demais componentes</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.994</v>
+        <v>0.7426</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0.7574</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>25018124</v>
+        <v>25019228</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>24</v>
+        <v>0.989</v>
       </c>
       <c r="E48" t="n">
-        <v>25.5</v>
+        <v>0.9926</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>25018124</v>
+        <v>25019228</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9689</v>
+        <v>0.989</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9741</v>
+        <v>0.9926</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25018124</v>
+        <v>25019228</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.8575</v>
+        <v>0.9669</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8679</v>
+        <v>0.9743000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25018124</v>
+        <v>25019228</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.9378</v>
+        <v>0.9118000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9637</v>
+        <v>0.9301</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25018124</v>
+        <v>25019228</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.9378</v>
+        <v>0.9706</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9637</v>
+        <v>0.9816</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>25018124</v>
+        <v>25019228</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.5</v>
+        <v>0.9743000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>0.9779</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>25018124</v>
+        <v>25019228</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1567,20 +1565,20 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.2098</v>
+        <v>0.1287</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2073</v>
+        <v>0.1213</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>25018124</v>
+        <v>25019228</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1588,165 +1586,167 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
+        <v>0.0184</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.011</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>25018132</v>
+        <v>25018140</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.9893</v>
+        <v>21</v>
       </c>
       <c r="E56" t="n">
-        <v>0.992</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>25018132</v>
+        <v>25018140</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.9544</v>
+        <v>0.8462</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9517</v>
+        <v>0.8527</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>25018132</v>
+        <v>25018140</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.9705</v>
+        <v>0.6192</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9759</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25018256</v>
+        <v>25018140</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.7707000000000001</v>
+        <v>0.9885</v>
       </c>
       <c r="E59" t="n">
-        <v>0.776</v>
+        <v>0.9845</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>25018256</v>
+        <v>25018140</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.9653</v>
+        <v>0.9885</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9893</v>
+        <v>0.9845</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>25018256</v>
+        <v>25018140</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.9653</v>
+        <v>0.8808</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9893</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25018256</v>
+        <v>25018140</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.8159999999999999</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7893</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25018256</v>
+        <v>25018140</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1754,20 +1754,20 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.7067</v>
+        <v>0.75</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7307</v>
+        <v>0.7403</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>25018256</v>
+        <v>25018140</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1775,1942 +1775,764 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.8827</v>
+        <v>0.8346</v>
       </c>
       <c r="E64" t="n">
-        <v>0.888</v>
+        <v>0.8411</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>25018256</v>
+        <v>25018140</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.944</v>
+        <v>0.9385</v>
       </c>
       <c r="E65" t="n">
-        <v>0.952</v>
+        <v>0.9419</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>25018256</v>
+        <v>25018140</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>I6</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.2827</v>
+        <v>1.5</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2187</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>25018264</v>
+        <v>25018140</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.0367</v>
+        <v>0.9</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0275</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25014960</v>
+        <v>25018140</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>33</v>
+        <v>0.2346</v>
       </c>
       <c r="E68" t="n">
-        <v>37.5</v>
+        <v>0.2326</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25014960</v>
+        <v>25018140</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.9746</v>
+        <v>0.0115</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9915</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25014960</v>
+        <v>25018639</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.9237</v>
+        <v>0.9129</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9492</v>
+        <v>0.9268</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>25014960</v>
+        <v>25018639</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.9831</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0.9443</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>25014960</v>
+        <v>25018639</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.9831</v>
+        <v>0.1394</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0.1707</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>25014960</v>
+        <v>25018639</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.9322</v>
+        <v>0.115</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9407</v>
+        <v>0.1115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>25014960</v>
+        <v>25018183</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.5</v>
+        <v>0.9466</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>0.9542</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>25014960</v>
+        <v>25018183</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.0508</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.0339</v>
-      </c>
+        <v>0.0076</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>25014960</v>
+        <v>25018191</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>I11</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>0.9911</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EEEF RENE ALVES RAMALHO</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>25130846</v>
+        <v>25018191</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.9718</v>
+        <v>0.9196</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9577</v>
+        <v>0.9286</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>25018078</v>
+        <v>25018060</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.9667</v>
+        <v>0.9838</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9655</v>
+        <v>0.9784</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>25018078</v>
+        <v>25018060</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.8444</v>
+        <v>0.9838</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8563</v>
+        <v>0.9784</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>25018078</v>
+        <v>25018060</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.9722</v>
+        <v>0.9026999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0.9135</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>25018078</v>
+        <v>25018060</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.9722</v>
+        <v>0.9243</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0.9081</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>25018078</v>
+        <v>25018060</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.8278</v>
+        <v>0.973</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8448</v>
+        <v>0.9568</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>25018078</v>
+        <v>25018060</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.6611</v>
+        <v>0.9568</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6724</v>
+        <v>0.9459</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>25018078</v>
+        <v>25018060</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.9167</v>
+        <v>0.1405</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9195</v>
+        <v>0.1514</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>25018078</v>
+        <v>25018272</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.9778</v>
+        <v>0.9685</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9943</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>25018078</v>
+        <v>25018272</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.8167</v>
+        <v>0.9189000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8563</v>
+        <v>0.9234</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>25018078</v>
+        <v>25018272</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.2778</v>
+        <v>0.9685</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2069</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>25018078</v>
+        <v>25018272</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.0056</v>
+        <v>0.9685</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0057</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>25019228</v>
+        <v>25018272</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.9377</v>
+        <v>0.9144</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9375</v>
+        <v>0.9324</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>25019228</v>
+        <v>25018272</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.7399</v>
+        <v>0.1036</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7426</v>
+        <v>0.09909999999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>25019228</v>
+        <v>25018582</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.9817</v>
+        <v>0.9358</v>
       </c>
       <c r="E91" t="n">
-        <v>0.989</v>
+        <v>0.9372</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>25019228</v>
+        <v>25018582</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.9817</v>
+        <v>0.6626</v>
       </c>
       <c r="E92" t="n">
-        <v>0.989</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>25019228</v>
+        <v>25018582</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.9487</v>
+        <v>0.9932</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9669</v>
+        <v>0.9945000000000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>25019228</v>
+        <v>25018582</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.9084</v>
+        <v>0.9932</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9118000000000001</v>
+        <v>0.9945000000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>25019228</v>
+        <v>25018582</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.9597</v>
+        <v>0.9344</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9706</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>25019228</v>
+        <v>25018582</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.9744</v>
+        <v>0.9153</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9743000000000001</v>
+        <v>0.9262</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>25019228</v>
+        <v>25018582</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.9707</v>
+        <v>0.9877</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9743000000000001</v>
+        <v>0.9863</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>25019228</v>
+        <v>25018582</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.1795</v>
+        <v>0.9986</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>25019228</v>
+        <v>25018582</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.0256</v>
+        <v>0.9358</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0184</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>25018140</v>
+        <v>25018582</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.85</v>
+        <v>0.1284</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8462</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>EEEFM CELSO MARIZ</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>25018140</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>0.9692</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.9885</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>EEEFM CELSO MARIZ</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>25018140</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação.1</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>0.9692</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.9885</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>EEEFM CELSO MARIZ</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>25018140</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>0.7423</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>EEEFM CELSO MARIZ</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>25018140</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>0.8231000000000001</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.8346</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>EEEFM CELSO MARIZ</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>25018140</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.2346</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>25018221</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>0.9755</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.9877</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>25018221</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>0.9939</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.9877</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>25018639</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>0.9094</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.899</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>25018639</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>0.7665999999999999</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.7596000000000001</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>25018639</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.9965000000000001</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>25018639</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação.1</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.9965000000000001</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>25018639</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Português</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>0.9233</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.9268</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>25018639</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>0.8362000000000001</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.8467</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>25018639</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>0.1498</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.1394</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>25018639</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>% Estudantes FICAI</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>0.1394</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>25018183</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>IEG</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>33</v>
-      </c>
-      <c r="E116" t="n">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>25018183</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>0.9237</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.9313</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>25018183</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>0.9847</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>25018183</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação.1</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>0.9847</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>25018183</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Português</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>0.9084</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.9466</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>25018183</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>I3</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E121" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>25018183</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>0.8397</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.8473000000000001</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>25018183</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>0.1221</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>25018191</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>IEG</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>36</v>
-      </c>
-      <c r="E124" t="n">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>25018191</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>0.9911</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>25018191</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação.1</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>0.9911</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>25018191</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Português</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>0.9732</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.9821</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>25018191</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>0.0536</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.0446</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>25018191</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>I11</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>IEG</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E130" t="n">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Português</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>0.9135</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.8919</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>I3</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>0.9297</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.9243</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>0.9784</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.973</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>0.9622000000000001</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.9568</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>0.1514</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.1405</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>% Estudantes FICAI</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>0.0378</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.0432</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>I15</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>3</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.9685</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>0.9234</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.9189000000000001</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>0.9414</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.9685</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação.1</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>0.9414</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.9685</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Português</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>0.8198</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.8243</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>0.9414</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.9459</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>0.9009</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.9144</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>0.2297</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.1036</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>0.9303</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.9358</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>0.6503</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.6626</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>0.9795</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.9932</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação.1</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>0.9795</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.9932</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Português</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>0.9276</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.9344</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>0.9071</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.9153</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.9877</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>0.9973</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.9986</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>0.9167</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.9358</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>0.1516</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.1284</v>
+        <v>0.1134</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_diferencas.xlsx
+++ b/relatorio_diferencas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,1429 +471,1429 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>0.1453</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
+          <t>ECI MARIA MOREIRA PINTO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25017438</v>
+        <v>25019740</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9402</v>
+        <v>0.9938</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25017438</v>
+        <v>25014412</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9402</v>
+        <v>0.8735000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9444</v>
+        <v>0.8794999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25017438</v>
+        <v>25014412</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7906</v>
+        <v>0.9759</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8205</v>
+        <v>0.9819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25017438</v>
+        <v>25014412</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9402</v>
+        <v>0.9578</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9274</v>
+        <v>0.9458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25017438</v>
+        <v>25014412</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0.1084</v>
       </c>
       <c r="E7" t="n">
-        <v>1.5</v>
+        <v>0.0843</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
+          <t>ECIT DOUTOR JOSE GADELHA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25017438</v>
+        <v>25018094</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.859</v>
+        <v>0.0189</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8889</v>
+        <v>0.0152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25017438</v>
+        <v>25018280</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1538</v>
+        <v>0.9802999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1453</v>
+        <v>0.9782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25014951</v>
+        <v>25018280</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9498</v>
+        <v>0.9802999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9540999999999999</v>
+        <v>0.9782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25014951</v>
+        <v>25018280</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9498</v>
+        <v>0.9258</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9540999999999999</v>
+        <v>0.9389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25014951</v>
+        <v>25018280</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9498</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.945</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25014951</v>
+        <v>25018280</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9087</v>
+        <v>0.9540999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9083</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25014951</v>
+        <v>25018280</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9543</v>
+        <v>0.0568</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9587</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25014951</v>
+        <v>25017080</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9589</v>
+        <v>0.8929</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9587</v>
+        <v>0.8988</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25014951</v>
+        <v>25126342</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9268999999999999</v>
+        <v>0.988</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9358</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25014951</v>
+        <v>25018124</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0822</v>
+        <v>0.8679</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.8705000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ECI MARIA MOREIRA PINTO</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25019740</v>
+        <v>25018132</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9752999999999999</v>
+        <v>43.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9815</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25014412</v>
+        <v>25018132</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.1205</v>
+        <v>0.9115</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1084</v>
+        <v>0.9866</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25018094</v>
+        <v>25018132</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9545</v>
+        <v>1.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9583</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25018094</v>
+        <v>25018256</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.125</v>
+        <v>0.7813</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1136</v>
+        <v>0.7786999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25018280</v>
+        <v>25018256</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9236</v>
+        <v>0.792</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9258</v>
+        <v>0.8187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25018280</v>
+        <v>25018256</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9782</v>
+        <v>0.9013</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9802999999999999</v>
+        <v>0.9147</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25018280</v>
+        <v>25018256</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9782</v>
+        <v>0.2133</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9802999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25018280</v>
+        <v>25018264</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9891</v>
+        <v>0.0275</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9913</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25018280</v>
+        <v>25018264</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.976</v>
+        <v>0.0183</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9802999999999999</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25018280</v>
+        <v>25014960</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9492</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9540999999999999</v>
+        <v>0.9576</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25018280</v>
+        <v>25017071</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.0633</v>
+        <v>0.9816</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0568</v>
+        <v>0.9877</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF RENE ALVES RAMALHO</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25018256</v>
+        <v>25130846</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>33</v>
+        <v>0.9859</v>
       </c>
       <c r="E29" t="n">
-        <v>34.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF RENE ALVES RAMALHO</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25018256</v>
+        <v>25130846</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.776</v>
+        <v>0.9859</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEF RENE ALVES RAMALHO</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25018256</v>
+        <v>25130846</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0.7893</v>
-      </c>
+          <t>% Estudantes FICAI</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.792</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25018256</v>
+        <v>25018078</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.888</v>
+        <v>0.8563</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9013</v>
+        <v>0.8621</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25018256</v>
+        <v>25018078</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.9195</v>
       </c>
       <c r="E33" t="n">
-        <v>1.5</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25018256</v>
+        <v>25018078</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9653</v>
+        <v>0.8563</v>
       </c>
       <c r="E34" t="n">
-        <v>0.968</v>
+        <v>0.8736</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25018256</v>
+        <v>25018078</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.952</v>
+        <v>0.1954</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9627</v>
+        <v>0.2011</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25018256</v>
+        <v>25019228</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.2187</v>
+        <v>39</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2133</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25018256</v>
+        <v>25019228</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.008</v>
+        <v>0.9449</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0053</v>
+        <v>0.9522</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25018264</v>
+        <v>25019228</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9817</v>
+        <v>0.7574</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0.7684</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25014960</v>
+        <v>25019228</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9407</v>
+        <v>0.9926</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9492</v>
+        <v>0.9963</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25017071</v>
+        <v>25019228</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>40.5</v>
+        <v>0.9926</v>
       </c>
       <c r="E40" t="n">
-        <v>42</v>
+        <v>0.9963</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25017071</v>
+        <v>25019228</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.0552</v>
+        <v>0.9301</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0491</v>
+        <v>0.9449</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25017071</v>
+        <v>25019228</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>I11</t>
+          <t>I4</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E42" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25018078</v>
+        <v>25019228</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.6724</v>
+        <v>0.9816</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7184</v>
+        <v>0.9853</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25018078</v>
+        <v>25019228</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.2069</v>
+        <v>0.9743000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1954</v>
+        <v>0.9816</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25018078</v>
+        <v>25019228</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
+        <v>0.1213</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1176</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25019228</v>
+        <v>25018140</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9375</v>
+        <v>0.624</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9449</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25019228</v>
+        <v>25018140</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.7426</v>
+        <v>0.7403</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7574</v>
+        <v>0.7674</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>25019228</v>
+        <v>25018140</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.989</v>
+        <v>0.907</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9926</v>
+        <v>0.9109</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>25019228</v>
+        <v>25018140</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.989</v>
+        <v>0.2326</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9926</v>
+        <v>0.2054</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25019228</v>
+        <v>25018140</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.9669</v>
+        <v>0.0155</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9743000000000001</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25019228</v>
+        <v>25018639</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.9118000000000001</v>
+        <v>0.899</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9301</v>
+        <v>0.8955</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25019228</v>
+        <v>25018639</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.9706</v>
+        <v>0.8467</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9816</v>
+        <v>0.8641</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>25019228</v>
+        <v>25018639</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.9743000000000001</v>
+        <v>0.9268</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9779</v>
+        <v>0.9303</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>25019228</v>
+        <v>25018183</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.1287</v>
+        <v>0.9771</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1213</v>
+        <v>0.9846</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>25019228</v>
+        <v>25018183</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.0184</v>
+        <v>0.9313</v>
       </c>
       <c r="E55" t="n">
-        <v>0.011</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>25018140</v>
+        <v>25018183</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>21</v>
+        <v>0.9542</v>
       </c>
       <c r="E56" t="n">
-        <v>24</v>
+        <v>0.9615</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>25018140</v>
+        <v>25018183</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.8462</v>
+        <v>0.8779</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8527</v>
+        <v>0.8846000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>25018140</v>
+        <v>25018183</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.6192</v>
+        <v>0.9313</v>
       </c>
       <c r="E58" t="n">
-        <v>0.624</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25018140</v>
+        <v>25018183</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.9885</v>
+        <v>0.8473000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9845</v>
+        <v>0.8538</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM ESTEVAM MARINHO</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>25018140</v>
+        <v>25018183</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.9885</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9845</v>
+        <v>0.0692</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>25018140</v>
+        <v>25018191</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.8808</v>
+        <v>37.5</v>
       </c>
       <c r="E61" t="n">
-        <v>0.907</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25018140</v>
+        <v>25018191</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>I3</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.0446</v>
       </c>
       <c r="E62" t="n">
-        <v>1.5</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25018140</v>
+        <v>25018191</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>I11</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7403</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>25018140</v>
+        <v>25018060</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.8346</v>
+        <v>0.9622000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8411</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>25018140</v>
+        <v>25018060</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.9385</v>
+        <v>0.8973</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9419</v>
+        <v>0.9022</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>25018140</v>
+        <v>25018060</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>I6</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.5</v>
+        <v>0.9784</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>0.9674</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>25018140</v>
+        <v>25018060</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.9</v>
+        <v>0.9784</v>
       </c>
       <c r="E67" t="n">
-        <v>0.907</v>
+        <v>0.9674</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25018140</v>
+        <v>25018060</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.2346</v>
+        <v>0.8919</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2326</v>
+        <v>0.8859</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25018140</v>
+        <v>25018060</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.0115</v>
+        <v>0.9135</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0155</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1901,20 +1901,20 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.9129</v>
+        <v>0.9081</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9268</v>
+        <v>0.9022</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1922,83 +1922,83 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0.9568</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9443</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.1394</v>
+        <v>0.9459</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1707</v>
+        <v>0.9293</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>25018639</v>
+        <v>25018060</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.115</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1115</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>25018183</v>
+        <v>25018060</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.9466</v>
+        <v>0.1514</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9542</v>
+        <v>0.1413</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>25018183</v>
+        <v>25018060</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2006,533 +2006,157 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="E75" t="inlineStr"/>
+        <v>0.0432</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0326</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>25018191</v>
+        <v>25018060</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>I15</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9911</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>25018191</v>
+        <v>25018582</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.9196</v>
+        <v>0.9372</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9286</v>
+        <v>0.9399</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>25018060</v>
+        <v>25018582</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.9838</v>
+        <v>0.6667</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9784</v>
+        <v>0.6708</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>25018060</v>
+        <v>25018582</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.9838</v>
+        <v>0.9945000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9784</v>
+        <v>0.9959</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>25018060</v>
+        <v>25018582</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.9026999999999999</v>
+        <v>0.9945000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9135</v>
+        <v>0.9959</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>25018060</v>
+        <v>25018582</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.9243</v>
+        <v>0.9385</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9081</v>
+        <v>0.9399</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>25018060</v>
+        <v>25018582</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.973</v>
+        <v>0.1134</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9568</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>0.9568</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.9459</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>25018060</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>0.1405</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.1514</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0.9685</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.973</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>0.9189000000000001</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.9234</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>0.9685</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.973</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação.1</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>0.9685</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.973</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>0.9144</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.9324</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>25018272</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0.1036</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.09909999999999999</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0.9358</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.9372</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0.6626</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.6667</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0.9932</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.9945000000000001</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Expectativa Taxa Aprovação.1</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0.9932</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.9945000000000001</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Português</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0.9344</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.9385</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0.9153</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.9262</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0.9877</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.9863</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0.9986</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>0.9358</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.9385</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>25018582</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>% Estudantes Média &lt; 5</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>0.1284</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.1134</v>
+        <v>0.0997</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_diferencas.xlsx
+++ b/relatorio_diferencas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,108 +471,108 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1453</v>
+        <v>0.9573</v>
       </c>
       <c r="E2" t="n">
-        <v>0.141</v>
+        <v>0.9615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ECI MARIA MOREIRA PINTO</t>
+          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25019740</v>
+        <v>25017438</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9938</v>
+        <v>0.8675</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8718</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25014412</v>
+        <v>25017438</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8735000000000001</v>
+        <v>0.9274</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8794999999999999</v>
+        <v>0.9359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI ANTONIO GREGORIO DE LACERDA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25014412</v>
+        <v>25017438</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9759</v>
+        <v>0.8889</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9819</v>
+        <v>0.8932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25014412</v>
+        <v>25019597</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9578</v>
+        <v>0.9068000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9458</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ECI NESTORINA ABRANTES</t>
+          <t>ECI DORGIVAL SILVEIRA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25014412</v>
+        <v>25019597</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -580,136 +580,136 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.1084</v>
+        <v>0.1056</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0843</v>
+        <v>0.09320000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ECIT DOUTOR JOSE GADELHA</t>
+          <t>ECI FRANCISCO AUGUSTO CAMPOS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25018094</v>
+        <v>25014951</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Participação Professores em Formações</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0189</v>
+        <v>1.07</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECI MARIA MOREIRA PINTO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25018280</v>
+        <v>25019740</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Participação Professores em Formações</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9802999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25018280</v>
+        <v>25014412</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9802999999999999</v>
+        <v>0.9458</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9782</v>
+        <v>0.9578</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECI NESTORINA ABRANTES</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25018280</v>
+        <v>25014412</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9258</v>
+        <v>0.0843</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9389</v>
+        <v>0.07829999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT ESTADUAL CHIQUINHO CARTAXO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25018280</v>
+        <v>25130242</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Participação Professores em Formações</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9409999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="E12" t="n">
-        <v>0.952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ECIT MESTRE JULIO SARMENTO</t>
+          <t>ECIT ESTADUAL DOUTOR SILVA MARIZ</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25018280</v>
+        <v>25019538</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Participação Professores em Formações</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9540999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -723,24 +723,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0568</v>
+        <v>43.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0546</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25017080</v>
+        <v>25018280</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -748,301 +748,301 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8929</v>
+        <v>0.9258</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8988</v>
+        <v>0.9301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25126342</v>
+        <v>25018280</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.988</v>
+        <v>0.9389</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.9454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EEEF BATISTA LEITE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25018124</v>
+        <v>25018280</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8679</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8705000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25018132</v>
+        <v>25018280</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>43.5</v>
+        <v>0.952</v>
       </c>
       <c r="E18" t="n">
-        <v>45</v>
+        <v>0.9498</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25018132</v>
+        <v>25018280</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9115</v>
+        <v>0.9802999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9866</v>
+        <v>0.9782</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EEEF BENTO FREIRE</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25018132</v>
+        <v>25018280</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.5</v>
+        <v>0.0546</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25018256</v>
+        <v>25018280</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>I11</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.7813</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7786999999999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>ECIT MESTRE JULIO SARMENTO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25018256</v>
+        <v>25018280</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Participação Professores em Formações</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.792</v>
+        <v>1.16</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25018256</v>
+        <v>25017080</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9013</v>
+        <v>0.994</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25018256</v>
+        <v>25017080</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2133</v>
+        <v>0.8988</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>0.9226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25018264</v>
+        <v>25017080</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.0275</v>
+        <v>0.9821</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0367</v>
+        <v>0.9881</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EEEF JAIME MEIRA FONTES</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25018264</v>
+        <v>25017080</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.0183</v>
+        <v>0.9821</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0092</v>
+        <v>0.9881</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EEEF MANOEL MENDES</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25014960</v>
+        <v>25017080</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9492</v>
+        <v>0.9107</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9576</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
+          <t>ECIT VALDEMIRO WANDERLEY DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25017071</v>
+        <v>25017080</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Participação Professores em Formações</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9816</v>
+        <v>1.08</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EEEF RENE ALVES RAMALHO</t>
+          <t>EEEF ANTONIA MARIA ANUNCIACAO DONA DONINHA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25130846</v>
+        <v>25126342</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Participação Professores em Formações</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9859</v>
+        <v>1.17</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1051,240 +1051,242 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EEEF RENE ALVES RAMALHO</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25130846</v>
+        <v>25018124</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9859</v>
+        <v>0.8705000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0.8756</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EEEF RENE ALVES RAMALHO</t>
+          <t>EEEF BATISTA LEITE</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25130846</v>
+        <v>25018124</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2073</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.0141</v>
+        <v>0.1995</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25018078</v>
+        <v>25018132</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes com frequência &gt; 80%</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8563</v>
+        <v>0.992</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8621</v>
+        <v>0.9946</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25018078</v>
+        <v>25018132</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9195</v>
+        <v>0.9517</v>
       </c>
       <c r="E33" t="n">
-        <v>0.931</v>
+        <v>0.9540999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25018078</v>
+        <v>25018132</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8563</v>
+        <v>0.9839</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8736</v>
+        <v>0.9865</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EEEFM ANDRE GADELHA</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25018078</v>
+        <v>25018132</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.1954</v>
+        <v>0.9759</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2011</v>
+        <v>0.9757</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25019228</v>
+        <v>25018132</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>39</v>
+        <v>0.9866</v>
       </c>
       <c r="E36" t="n">
-        <v>40.5</v>
+        <v>0.9892</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25019228</v>
+        <v>25018132</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9449</v>
+        <v>0.0134</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9522</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF BENTO FREIRE</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25019228</v>
+        <v>25018132</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.7574</v>
+        <v>0.0054</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7684</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25019228</v>
+        <v>25018256</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9926</v>
+        <v>0.7786999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9963</v>
+        <v>0.7813</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25019228</v>
+        <v>25018256</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9926</v>
+        <v>0.8187</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9963</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25019228</v>
+        <v>25018256</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1292,230 +1294,230 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9301</v>
+        <v>0.7307</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9449</v>
+        <v>0.7413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25019228</v>
+        <v>25018256</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>I4</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.5</v>
+        <v>0.968</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>0.9707</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25019228</v>
+        <v>25018256</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9816</v>
+        <v>0.2</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9853</v>
+        <v>0.1813</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF DE DEMONSTRACAO DE SOUSA</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25019228</v>
+        <v>25018256</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>% Participação Professores em Formações</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9743000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EEEFM ANTONIO TEODORO NETO</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25019228</v>
+        <v>25018264</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.1213</v>
+        <v>0.9908</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1176</v>
+        <v>0.9725</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25018140</v>
+        <v>25018264</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.624</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6395</v>
+        <v>0.9908</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25018140</v>
+        <v>25018264</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.7403</v>
+        <v>0.9633</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7674</v>
+        <v>0.9540999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF JAIME MEIRA FONTES</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>25018140</v>
+        <v>25018264</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.907</v>
+        <v>0.0092</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9109</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>25018140</v>
+        <v>25014960</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.2326</v>
+        <v>0.9492</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2054</v>
+        <v>0.9576</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EEEFM CELSO MARIZ</t>
+          <t>EEEF MANOEL MENDES</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25018140</v>
+        <v>25014960</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.0155</v>
+        <v>0.0339</v>
       </c>
       <c r="E50" t="n">
-        <v>0.031</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25018639</v>
+        <v>25017071</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.899</v>
+        <v>42</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8955</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25018639</v>
+        <v>25017071</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1523,209 +1525,207 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8467</v>
+        <v>0.9202</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8641</v>
+        <v>0.9693000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>25018639</v>
+        <v>25017071</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>I4</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.9268</v>
+        <v>1.5</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9303</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>25018183</v>
+        <v>25017071</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.9771</v>
+        <v>0.9755</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9846</v>
+        <v>0.9816</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>25018183</v>
+        <v>25017071</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.9313</v>
+        <v>0.0491</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9385</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>25018183</v>
+        <v>25017071</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>I11</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.9542</v>
+        <v>1.5</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9615</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEF PROFESSOR NESTOR ANTUNES</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>25018183</v>
+        <v>25017071</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Participação Professores em Formações</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.8779</v>
+        <v>1.21</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8846000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEF RENE ALVES RAMALHO</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>25018183</v>
+        <v>25130846</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes FICAI</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.9313</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.9385</v>
-      </c>
+        <v>0.0141</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25018183</v>
+        <v>25018078</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.8473000000000001</v>
+        <v>0.8621</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8538</v>
+        <v>0.8678</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EEEFM ESTEVAM MARINHO</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>25018183</v>
+        <v>25018078</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.7184</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0692</v>
+        <v>0.7241</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>25018191</v>
+        <v>25018078</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>IEG</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>37.5</v>
+        <v>0.931</v>
       </c>
       <c r="E61" t="n">
-        <v>39</v>
+        <v>0.9368</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM ANDRE GADELHA</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25018191</v>
+        <v>25018078</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1733,430 +1733,1459 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.0446</v>
+        <v>0.2011</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0357</v>
+        <v>0.1897</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25018191</v>
+        <v>25019228</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>I11</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.5</v>
+        <v>0.7684</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>0.7794</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.9622000000000001</v>
+        <v>0.9963</v>
       </c>
       <c r="E64" t="n">
-        <v>0.962</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.8973</v>
+        <v>0.9963</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9022</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.9784</v>
+        <v>0.9743000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9674</v>
+        <v>0.9706</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.9784</v>
+        <v>0.9449</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9674</v>
+        <v>0.9559</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Português</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.8919</v>
+        <v>0.9853</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8859</v>
+        <v>0.9816</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Matemática</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.9135</v>
+        <v>0.9779</v>
       </c>
       <c r="E69" t="n">
-        <v>0.913</v>
+        <v>0.9706</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM ANTONIO TEODORO NETO</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25018060</v>
+        <v>25019228</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Humanas</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.9081</v>
+        <v>0.1176</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9022</v>
+        <v>0.0956</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>25018060</v>
+        <v>25018140</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Linguagem</t>
+          <t>IEG</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.9568</v>
+        <v>24</v>
       </c>
       <c r="E71" t="n">
-        <v>0.962</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>25018060</v>
+        <v>25018140</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes com frequência &gt; 90%</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.9459</v>
+        <v>0.6395</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9293</v>
+        <v>0.6473</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>25018060</v>
+        <v>25018140</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>Expectativa Taxa Aprovação</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>0.9845</v>
       </c>
       <c r="E73" t="n">
-        <v>1.5</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>25018060</v>
+        <v>25018140</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>% Estudantes Média &lt; 5</t>
+          <t>Expectativa Taxa Aprovação.1</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.1514</v>
+        <v>0.9845</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1413</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>25018060</v>
+        <v>25018140</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>% Estudantes FICAI</t>
+          <t>% Estudantes &gt; Média em Português</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.0432</v>
+        <v>0.907</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0326</v>
+        <v>0.8875999999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>25018060</v>
+        <v>25018140</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>I15</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>1.5</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>25018582</v>
+        <v>25018140</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 80%</t>
+          <t>% Estudantes &gt; Média em Matemática</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.9372</v>
+        <v>0.7674</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9399</v>
+        <v>0.7752</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>25018582</v>
+        <v>25018140</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>% Estudantes com frequência &gt; 90%</t>
+          <t>% Estudantes &gt; Média em Humanas</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.6667</v>
+        <v>0.8411</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6708</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>25018582</v>
+        <v>25018140</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação</t>
+          <t>% Estudantes &gt; Média em Linguagem</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.9945000000000001</v>
+        <v>0.9419</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9959</v>
+        <v>0.9612000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>25018582</v>
+        <v>25018140</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Expectativa Taxa Aprovação.1</t>
+          <t>% Estudantes &gt; Média em Natureza</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.9945000000000001</v>
+        <v>0.9109</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9959</v>
+        <v>0.9341</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EEEM JOSE DE PAIVA GADELHA</t>
+          <t>EEEFM CELSO MARIZ</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>25018582</v>
+        <v>25018140</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>% Estudantes &gt; Média em Natureza</t>
+          <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.9385</v>
+        <v>0.2054</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9399</v>
+        <v>0.1705</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>EEEFM CELSO MARIZ</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>25018140</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>% Estudantes FICAI</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0349</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>25018221</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Humanas</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9877</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.9939</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>EEEFM CONEGO JOAO CARTAXO ROLIM</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>25018221</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0123</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>IEG</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 80%</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.8955</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.9732</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 90%</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7596000000000001</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.8429</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>I1</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9965000000000001</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação.1</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9965000000000001</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9268</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Matemática</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.8641</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.9425</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>I4</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Humanas</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9303</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9655</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>I5</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Linguagem</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.9443</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.9962</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.1707</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0805</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>% Estudantes FICAI</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.1115</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>EEEFM DOUTOR THOMAZ PIRES</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>25018639</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>I15</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>EEEFM ESTEVAM MARINHO</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>25018183</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>% Participação Professores em Formações</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 80%</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.9554</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 90%</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.8839</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.9911</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Expectativa Taxa Aprovação.1</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.9911</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.9821</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.9732</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Matemática</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.9464</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.9286</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>I4</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>3</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Humanas</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.9732</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.9821</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Linguagem</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.9821</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Natureza</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.9286</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.9464</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0357</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0268</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>EEEFM FRANCISCO CICERO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>25018191</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>% Estudantes FICAI</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0179</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 90%</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.9022</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.9076</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0.8859</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.8967000000000001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Humanas</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.9022</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.9076</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>EEEFM IZIDRA PACIFICO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>25018060</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.1413</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.1359</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 80%</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.9685</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 90%</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0.9234</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.9278999999999999</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.8243</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>% Estudantes Média &lt; 5</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.09909999999999999</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0946</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>EEEFM PROFESSORA DIONE DINIZ OLIVEIRA DIAS</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>25018272</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>% Participação Professores em Formações</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>EEEM JOSE DE PAIVA GADELHA</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B125" t="n">
         <v>25018582</v>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>IEG</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 80%</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.9399</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.944</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>% Estudantes com frequência &gt; 90%</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.6708</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.6776</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Português</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.9385</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.9454</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>% Estudantes &gt; Média em Humanas</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.9863</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.9891</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>EEEM JOSE DE PAIVA GADELHA</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>25018582</v>
+      </c>
+      <c r="C131" t="inlineStr">
         <is>
           <t>% Estudantes Média &lt; 5</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>0.1134</v>
-      </c>
-      <c r="E82" t="n">
+      <c r="D131" t="n">
         <v>0.0997</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.09429999999999999</v>
       </c>
     </row>
   </sheetData>
